--- a/3_外部設計(ED)/外部設計書.xlsx
+++ b/3_外部設計(ED)/外部設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/e-learning-web-app/e-learning-web-app/3_外部設計(ED)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03AF837-1AA5-C54E-A17F-22369D3289AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E59439-D7BF-E243-853F-1345BC139296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">外部設計!$B$1:$BT$272</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentManualCount="2"/>
 </workbook>
 </file>
 
@@ -124,41 +124,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="2"/>
+    <t>指摘書によって考えないといけないことがまだあるので今回にこの段階を開発しない</t>
   </si>
   <si>
-    <t>トレニンーグ部権限の場合</t>
-    <rPh sb="6" eb="7">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <t>企業権限</t>
+    <rPh sb="10" eb="12">
       <t>ケンゲン</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="13" eb="15">
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一般ユーザー権限の場合</t>
+    <t>一般ユーザー権限</t>
     <rPh sb="0" eb="2">
       <t>イッパン</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>ケンゲン</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理者権限の場合</t>
-    <rPh sb="0" eb="5">
+    <t>管理人権限</t>
+    <rPh sb="0" eb="9">
       <t>カンリシャケンゲン</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="10" eb="12">
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -656,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,30 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -908,6 +877,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6148,7 +6144,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>顧客権限</a:t>
+            <a:t>企業権限</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6210,7 +6206,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>管理者権限</a:t>
+            <a:t>管理人権限</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6272,7 +6268,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザー権限</a:t>
+            <a:t>一般ユーザー権限</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12041,6 +12037,188 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="線吹き出し 1 (枠付き) 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10F6874-4279-B548-9365-9DB11DC52C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11379200" y="12979400"/>
+          <a:ext cx="2273300" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53063"/>
+            <a:gd name="adj2" fmla="val 101165"/>
+            <a:gd name="adj3" fmla="val 116421"/>
+            <a:gd name="adj4" fmla="val 131498"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CE8B98-1415-C045-BCA2-12D55852188E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="24231600"/>
+          <a:ext cx="2755900" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A88C05-0364-0F4C-8E3A-BF269B589FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3213100" y="28803600"/>
+          <a:ext cx="2311400" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12708,8 +12886,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CN238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AQ140" sqref="AQ140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -12722,70 +12900,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="20.5" customHeight="1">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38" t="s">
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38" t="s">
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38" t="s">
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
       <c r="BB1" s="4"/>
@@ -12827,64 +13005,64 @@
       <c r="CL1" s="25"/>
     </row>
     <row r="2" spans="1:90" ht="20.5" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="42">
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="82">
         <v>43961</v>
       </c>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
       <c r="AZ2" s="26"/>
       <c r="BA2" s="26"/>
       <c r="BB2" s="26"/>
@@ -12926,557 +13104,557 @@
       <c r="CL2" s="27"/>
     </row>
     <row r="3" spans="1:90" s="9" customFormat="1" ht="15" thickBot="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
-      <c r="BW3" s="52"/>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52"/>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="52"/>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="52"/>
-      <c r="CG3" s="52"/>
-      <c r="CH3" s="52"/>
-      <c r="CI3" s="52"/>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="53"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="44"/>
+      <c r="BV3" s="44"/>
+      <c r="BW3" s="44"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="44"/>
+      <c r="BZ3" s="44"/>
+      <c r="CA3" s="44"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="44"/>
+      <c r="CD3" s="44"/>
+      <c r="CE3" s="44"/>
+      <c r="CF3" s="44"/>
+      <c r="CG3" s="44"/>
+      <c r="CH3" s="44"/>
+      <c r="CI3" s="44"/>
+      <c r="CJ3" s="44"/>
+      <c r="CK3" s="44"/>
+      <c r="CL3" s="45"/>
     </row>
     <row r="4" spans="1:90" s="4" customFormat="1" ht="17">
       <c r="A4" s="26"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="58"/>
-      <c r="BM4" s="58"/>
-      <c r="BN4" s="58"/>
-      <c r="BO4" s="58"/>
-      <c r="BP4" s="58"/>
-      <c r="BQ4" s="58"/>
-      <c r="BR4" s="58"/>
-      <c r="BS4" s="58"/>
-      <c r="BT4" s="58"/>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="58"/>
-      <c r="BW4" s="58"/>
-      <c r="BX4" s="58"/>
-      <c r="BY4" s="58"/>
-      <c r="BZ4" s="58"/>
-      <c r="CA4" s="58"/>
-      <c r="CB4" s="58"/>
-      <c r="CC4" s="58"/>
-      <c r="CD4" s="58"/>
-      <c r="CE4" s="58"/>
-      <c r="CF4" s="58"/>
-      <c r="CG4" s="58"/>
-      <c r="CH4" s="58"/>
-      <c r="CI4" s="58"/>
-      <c r="CJ4" s="58"/>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="59"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="50"/>
+      <c r="BO4" s="50"/>
+      <c r="BP4" s="50"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="50"/>
+      <c r="BU4" s="50"/>
+      <c r="BV4" s="50"/>
+      <c r="BW4" s="50"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="50"/>
+      <c r="BZ4" s="50"/>
+      <c r="CA4" s="50"/>
+      <c r="CB4" s="50"/>
+      <c r="CC4" s="50"/>
+      <c r="CD4" s="50"/>
+      <c r="CE4" s="50"/>
+      <c r="CF4" s="50"/>
+      <c r="CG4" s="50"/>
+      <c r="CH4" s="50"/>
+      <c r="CI4" s="50"/>
+      <c r="CJ4" s="50"/>
+      <c r="CK4" s="50"/>
+      <c r="CL4" s="51"/>
     </row>
     <row r="5" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B5" s="60"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="CL5" s="61"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="CL5" s="53"/>
     </row>
     <row r="6" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B6" s="60"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="CL6" s="61"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="CL6" s="53"/>
     </row>
     <row r="7" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B7" s="60"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="CL7" s="61"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="CL7" s="53"/>
     </row>
     <row r="8" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B8" s="60"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="CL8" s="61"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="CL8" s="53"/>
     </row>
     <row r="9" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B9" s="60"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="CL9" s="61"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="CL9" s="53"/>
     </row>
     <row r="10" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B10" s="60"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="CL10" s="61"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="CL10" s="53"/>
     </row>
     <row r="11" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B11" s="60"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="CL11" s="61"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="CL11" s="53"/>
     </row>
     <row r="12" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B12" s="60"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="CL12" s="61"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="CL12" s="53"/>
     </row>
     <row r="13" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B13" s="60"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="CL13" s="61"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="CL13" s="53"/>
     </row>
     <row r="14" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B14" s="60"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="CL14" s="61"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="CL14" s="53"/>
     </row>
     <row r="15" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B15" s="60"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="CL15" s="61"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="CL15" s="53"/>
     </row>
     <row r="16" spans="1:90" s="26" customFormat="1" ht="17">
-      <c r="B16" s="60"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="CL16" s="61"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="CL16" s="53"/>
     </row>
     <row r="17" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B17" s="60"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="CL17" s="61"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="CL17" s="53"/>
     </row>
     <row r="18" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B18" s="60"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="CL18" s="61"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="CL18" s="53"/>
     </row>
     <row r="19" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B19" s="60"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="CL19" s="61"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="CL19" s="53"/>
     </row>
     <row r="20" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B20" s="60"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="CL20" s="61"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="CL20" s="53"/>
     </row>
     <row r="21" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B21" s="60"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="CL21" s="61"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="CL21" s="53"/>
     </row>
     <row r="22" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B22" s="60"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="CL22" s="61"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="CL22" s="53"/>
     </row>
     <row r="23" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B23" s="60"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="CL23" s="61"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="CL23" s="53"/>
     </row>
     <row r="24" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B24" s="60"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="CL24" s="61"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="CL24" s="53"/>
     </row>
     <row r="25" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B25" s="60"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="CL25" s="61"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="CL25" s="53"/>
     </row>
     <row r="26" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B26" s="60"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="CL26" s="61"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="CL26" s="53"/>
     </row>
     <row r="27" spans="2:90" s="6" customFormat="1" ht="17">
-      <c r="B27" s="62"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="CL27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="CL27" s="55"/>
     </row>
     <row r="28" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B28" s="60"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="CL28" s="61"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="CL28" s="53"/>
     </row>
     <row r="29" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B29" s="60"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="CL29" s="61"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="CL29" s="53"/>
     </row>
     <row r="30" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B30" s="60"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="CL30" s="61"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="CL30" s="53"/>
     </row>
     <row r="31" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B31" s="60"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="CL31" s="61"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="CL31" s="53"/>
     </row>
     <row r="32" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B32" s="60"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="CL32" s="61"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="CL32" s="53"/>
     </row>
     <row r="33" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B33" s="60"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="CL33" s="61"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="CL33" s="53"/>
     </row>
     <row r="34" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B34" s="60"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="CL34" s="61"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="CL34" s="53"/>
     </row>
     <row r="35" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B35" s="60"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="CL35" s="61"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="CL35" s="53"/>
     </row>
     <row r="36" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B36" s="60"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="CL36" s="61"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="CL36" s="53"/>
     </row>
     <row r="37" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B37" s="60"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="CL37" s="61"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="CL37" s="53"/>
     </row>
     <row r="38" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B38" s="60"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="CL38" s="61"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="CL38" s="53"/>
     </row>
     <row r="39" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B39" s="60"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="CL39" s="61"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="CL39" s="53"/>
     </row>
     <row r="40" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B40" s="60"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="CL40" s="61"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="CL40" s="53"/>
     </row>
     <row r="41" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B41" s="60"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="CL41" s="61"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="CL41" s="53"/>
     </row>
     <row r="42" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B42" s="60"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="CL42" s="61"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="CL42" s="53"/>
     </row>
     <row r="43" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B43" s="60"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="CL43" s="61"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="CL43" s="53"/>
     </row>
     <row r="44" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B44" s="60"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="CL44" s="61"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="CL44" s="53"/>
     </row>
     <row r="45" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B45" s="60"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="CL45" s="61"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="CL45" s="53"/>
     </row>
     <row r="46" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B46" s="60"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="CL46" s="61"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="CL46" s="53"/>
     </row>
     <row r="47" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B47" s="60"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="CL47" s="61"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="CL47" s="53"/>
     </row>
     <row r="48" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B48" s="60"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="CL48" s="61"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="CL48" s="53"/>
     </row>
     <row r="49" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B49" s="60"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="CL49" s="61"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="CL49" s="53"/>
     </row>
     <row r="50" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B50" s="60"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="CL50" s="61"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="CL50" s="53"/>
     </row>
     <row r="51" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B51" s="60"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="CL51" s="61"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="CL51" s="53"/>
     </row>
     <row r="52" spans="2:90" s="6" customFormat="1" ht="20" customHeight="1">
-      <c r="B52" s="62"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="CL52" s="63"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="CL52" s="55"/>
     </row>
     <row r="53" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B53" s="60"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="CL53" s="61"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="CL53" s="53"/>
     </row>
     <row r="54" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B54" s="60"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="CL54" s="61"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="CL54" s="53"/>
     </row>
     <row r="55" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B55" s="60"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="CL55" s="61"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="CL55" s="53"/>
     </row>
     <row r="56" spans="2:90" s="26" customFormat="1" ht="17">
-      <c r="B56" s="60"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="CL56" s="61"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="CL56" s="53"/>
     </row>
     <row r="57" spans="2:90" ht="17">
-      <c r="B57" s="64"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="5"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
@@ -13564,10 +13742,10 @@
       <c r="CI57" s="26"/>
       <c r="CJ57" s="26"/>
       <c r="CK57" s="26"/>
-      <c r="CL57" s="61"/>
+      <c r="CL57" s="53"/>
     </row>
     <row r="58" spans="2:90" ht="21" customHeight="1">
-      <c r="B58" s="65"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="28"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -13655,10 +13833,10 @@
       <c r="CI58" s="26"/>
       <c r="CJ58" s="26"/>
       <c r="CK58" s="26"/>
-      <c r="CL58" s="61"/>
+      <c r="CL58" s="53"/>
     </row>
     <row r="59" spans="2:90">
-      <c r="B59" s="65"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="29"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -13746,10 +13924,10 @@
       <c r="CI59" s="26"/>
       <c r="CJ59" s="26"/>
       <c r="CK59" s="26"/>
-      <c r="CL59" s="61"/>
+      <c r="CL59" s="53"/>
     </row>
     <row r="60" spans="2:90">
-      <c r="B60" s="65"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="29"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -13837,10 +14015,10 @@
       <c r="CI60" s="26"/>
       <c r="CJ60" s="26"/>
       <c r="CK60" s="26"/>
-      <c r="CL60" s="61"/>
+      <c r="CL60" s="53"/>
     </row>
     <row r="61" spans="2:90">
-      <c r="B61" s="65"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="29"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
@@ -13928,10 +14106,10 @@
       <c r="CI61" s="26"/>
       <c r="CJ61" s="26"/>
       <c r="CK61" s="26"/>
-      <c r="CL61" s="61"/>
+      <c r="CL61" s="53"/>
     </row>
     <row r="62" spans="2:90">
-      <c r="B62" s="65"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="29"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
@@ -14019,10 +14197,10 @@
       <c r="CI62" s="26"/>
       <c r="CJ62" s="26"/>
       <c r="CK62" s="26"/>
-      <c r="CL62" s="61"/>
+      <c r="CL62" s="53"/>
     </row>
     <row r="63" spans="2:90">
-      <c r="B63" s="65"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="29"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
@@ -14110,10 +14288,10 @@
       <c r="CI63" s="26"/>
       <c r="CJ63" s="26"/>
       <c r="CK63" s="26"/>
-      <c r="CL63" s="61"/>
+      <c r="CL63" s="53"/>
     </row>
     <row r="64" spans="2:90">
-      <c r="B64" s="65"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="29"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
@@ -14201,10 +14379,10 @@
       <c r="CI64" s="26"/>
       <c r="CJ64" s="26"/>
       <c r="CK64" s="26"/>
-      <c r="CL64" s="61"/>
+      <c r="CL64" s="53"/>
     </row>
     <row r="65" spans="1:90">
-      <c r="B65" s="65"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="29"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
@@ -14292,10 +14470,10 @@
       <c r="CI65" s="26"/>
       <c r="CJ65" s="26"/>
       <c r="CK65" s="26"/>
-      <c r="CL65" s="61"/>
+      <c r="CL65" s="53"/>
     </row>
     <row r="66" spans="1:90">
-      <c r="B66" s="65"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="29"/>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
@@ -14383,10 +14561,10 @@
       <c r="CI66" s="26"/>
       <c r="CJ66" s="26"/>
       <c r="CK66" s="26"/>
-      <c r="CL66" s="61"/>
+      <c r="CL66" s="53"/>
     </row>
     <row r="67" spans="1:90">
-      <c r="B67" s="65"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="29"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
@@ -14474,10 +14652,10 @@
       <c r="CI67" s="26"/>
       <c r="CJ67" s="26"/>
       <c r="CK67" s="26"/>
-      <c r="CL67" s="61"/>
+      <c r="CL67" s="53"/>
     </row>
     <row r="68" spans="1:90">
-      <c r="B68" s="65"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="29"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -14565,10 +14743,10 @@
       <c r="CI68" s="26"/>
       <c r="CJ68" s="26"/>
       <c r="CK68" s="26"/>
-      <c r="CL68" s="61"/>
+      <c r="CL68" s="53"/>
     </row>
     <row r="69" spans="1:90">
-      <c r="B69" s="65"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="29"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
@@ -14656,10 +14834,10 @@
       <c r="CI69" s="26"/>
       <c r="CJ69" s="26"/>
       <c r="CK69" s="26"/>
-      <c r="CL69" s="61"/>
+      <c r="CL69" s="53"/>
     </row>
     <row r="70" spans="1:90">
-      <c r="B70" s="65"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="29"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
@@ -14720,7 +14898,9 @@
       <c r="BH70" s="26"/>
       <c r="BI70" s="26"/>
       <c r="BJ70" s="26"/>
-      <c r="BK70" s="26"/>
+      <c r="BK70" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="BL70" s="26"/>
       <c r="BM70" s="26"/>
       <c r="BN70" s="26"/>
@@ -14747,10 +14927,10 @@
       <c r="CI70" s="26"/>
       <c r="CJ70" s="26"/>
       <c r="CK70" s="26"/>
-      <c r="CL70" s="61"/>
+      <c r="CL70" s="53"/>
     </row>
     <row r="71" spans="1:90">
-      <c r="B71" s="65"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="29"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
@@ -14838,10 +15018,10 @@
       <c r="CI71" s="26"/>
       <c r="CJ71" s="26"/>
       <c r="CK71" s="26"/>
-      <c r="CL71" s="61"/>
+      <c r="CL71" s="53"/>
     </row>
     <row r="72" spans="1:90">
-      <c r="B72" s="65"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="29"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
@@ -14929,10 +15109,10 @@
       <c r="CI72" s="26"/>
       <c r="CJ72" s="26"/>
       <c r="CK72" s="26"/>
-      <c r="CL72" s="61"/>
+      <c r="CL72" s="53"/>
     </row>
     <row r="73" spans="1:90">
-      <c r="B73" s="65"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="29"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
@@ -15020,193 +15200,193 @@
       <c r="CI73" s="26"/>
       <c r="CJ73" s="26"/>
       <c r="CK73" s="26"/>
-      <c r="CL73" s="61"/>
+      <c r="CL73" s="53"/>
     </row>
     <row r="74" spans="1:90" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A74" s="26"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="69"/>
-      <c r="P74" s="69"/>
-      <c r="Q74" s="69"/>
-      <c r="R74" s="69"/>
-      <c r="S74" s="69"/>
-      <c r="T74" s="69"/>
-      <c r="U74" s="69"/>
-      <c r="V74" s="69"/>
-      <c r="W74" s="69"/>
-      <c r="X74" s="69"/>
-      <c r="Y74" s="69"/>
-      <c r="Z74" s="69"/>
-      <c r="AA74" s="69"/>
-      <c r="AB74" s="69"/>
-      <c r="AC74" s="69"/>
-      <c r="AD74" s="69"/>
-      <c r="AE74" s="69"/>
-      <c r="AF74" s="69"/>
-      <c r="AG74" s="69"/>
-      <c r="AH74" s="69"/>
-      <c r="AI74" s="69"/>
-      <c r="AJ74" s="69"/>
-      <c r="AK74" s="69"/>
-      <c r="AL74" s="69"/>
-      <c r="AM74" s="69"/>
-      <c r="AN74" s="69"/>
-      <c r="AO74" s="69"/>
-      <c r="AP74" s="69"/>
-      <c r="AQ74" s="68"/>
-      <c r="AR74" s="68"/>
-      <c r="AS74" s="68"/>
-      <c r="AT74" s="68"/>
-      <c r="AU74" s="68"/>
-      <c r="AV74" s="68"/>
-      <c r="AW74" s="68"/>
-      <c r="AX74" s="68"/>
-      <c r="AY74" s="68"/>
-      <c r="AZ74" s="68"/>
-      <c r="BA74" s="68"/>
-      <c r="BB74" s="68"/>
-      <c r="BC74" s="68"/>
-      <c r="BD74" s="68"/>
-      <c r="BE74" s="68"/>
-      <c r="BF74" s="68"/>
-      <c r="BG74" s="68"/>
-      <c r="BH74" s="68"/>
-      <c r="BI74" s="68"/>
-      <c r="BJ74" s="68"/>
-      <c r="BK74" s="68"/>
-      <c r="BL74" s="68"/>
-      <c r="BM74" s="68"/>
-      <c r="BN74" s="68"/>
-      <c r="BO74" s="68"/>
-      <c r="BP74" s="68"/>
-      <c r="BQ74" s="68"/>
-      <c r="BR74" s="68"/>
-      <c r="BS74" s="68"/>
-      <c r="BT74" s="68"/>
-      <c r="BU74" s="68"/>
-      <c r="BV74" s="68"/>
-      <c r="BW74" s="68"/>
-      <c r="BX74" s="68"/>
-      <c r="BY74" s="68"/>
-      <c r="BZ74" s="68"/>
-      <c r="CA74" s="68"/>
-      <c r="CB74" s="68"/>
-      <c r="CC74" s="68"/>
-      <c r="CD74" s="68"/>
-      <c r="CE74" s="68"/>
-      <c r="CF74" s="68"/>
-      <c r="CG74" s="68"/>
-      <c r="CH74" s="68"/>
-      <c r="CI74" s="68"/>
-      <c r="CJ74" s="68"/>
-      <c r="CK74" s="68"/>
-      <c r="CL74" s="70"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="60"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="61"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
+      <c r="AA74" s="61"/>
+      <c r="AB74" s="61"/>
+      <c r="AC74" s="61"/>
+      <c r="AD74" s="61"/>
+      <c r="AE74" s="61"/>
+      <c r="AF74" s="61"/>
+      <c r="AG74" s="61"/>
+      <c r="AH74" s="61"/>
+      <c r="AI74" s="61"/>
+      <c r="AJ74" s="61"/>
+      <c r="AK74" s="61"/>
+      <c r="AL74" s="61"/>
+      <c r="AM74" s="61"/>
+      <c r="AN74" s="61"/>
+      <c r="AO74" s="61"/>
+      <c r="AP74" s="61"/>
+      <c r="AQ74" s="60"/>
+      <c r="AR74" s="60"/>
+      <c r="AS74" s="60"/>
+      <c r="AT74" s="60"/>
+      <c r="AU74" s="60"/>
+      <c r="AV74" s="60"/>
+      <c r="AW74" s="60"/>
+      <c r="AX74" s="60"/>
+      <c r="AY74" s="60"/>
+      <c r="AZ74" s="60"/>
+      <c r="BA74" s="60"/>
+      <c r="BB74" s="60"/>
+      <c r="BC74" s="60"/>
+      <c r="BD74" s="60"/>
+      <c r="BE74" s="60"/>
+      <c r="BF74" s="60"/>
+      <c r="BG74" s="60"/>
+      <c r="BH74" s="60"/>
+      <c r="BI74" s="60"/>
+      <c r="BJ74" s="60"/>
+      <c r="BK74" s="60"/>
+      <c r="BL74" s="60"/>
+      <c r="BM74" s="60"/>
+      <c r="BN74" s="60"/>
+      <c r="BO74" s="60"/>
+      <c r="BP74" s="60"/>
+      <c r="BQ74" s="60"/>
+      <c r="BR74" s="60"/>
+      <c r="BS74" s="60"/>
+      <c r="BT74" s="60"/>
+      <c r="BU74" s="60"/>
+      <c r="BV74" s="60"/>
+      <c r="BW74" s="60"/>
+      <c r="BX74" s="60"/>
+      <c r="BY74" s="60"/>
+      <c r="BZ74" s="60"/>
+      <c r="CA74" s="60"/>
+      <c r="CB74" s="60"/>
+      <c r="CC74" s="60"/>
+      <c r="CD74" s="60"/>
+      <c r="CE74" s="60"/>
+      <c r="CF74" s="60"/>
+      <c r="CG74" s="60"/>
+      <c r="CH74" s="60"/>
+      <c r="CI74" s="60"/>
+      <c r="CJ74" s="60"/>
+      <c r="CK74" s="60"/>
+      <c r="CL74" s="62"/>
     </row>
     <row r="75" spans="1:90">
-      <c r="B75" s="71"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="75"/>
-      <c r="S75" s="75"/>
-      <c r="T75" s="75"/>
-      <c r="U75" s="75"/>
-      <c r="V75" s="75"/>
-      <c r="W75" s="75"/>
-      <c r="X75" s="75"/>
-      <c r="Y75" s="75"/>
-      <c r="Z75" s="75"/>
-      <c r="AA75" s="75"/>
-      <c r="AB75" s="75"/>
-      <c r="AC75" s="75"/>
-      <c r="AD75" s="75"/>
-      <c r="AE75" s="75"/>
-      <c r="AF75" s="75"/>
-      <c r="AG75" s="75"/>
-      <c r="AH75" s="75"/>
-      <c r="AI75" s="75"/>
-      <c r="AJ75" s="75"/>
-      <c r="AK75" s="75"/>
-      <c r="AL75" s="75"/>
-      <c r="AM75" s="75"/>
-      <c r="AN75" s="75"/>
-      <c r="AO75" s="75"/>
-      <c r="AP75" s="75"/>
-      <c r="AQ75" s="58"/>
-      <c r="AR75" s="58"/>
-      <c r="AS75" s="58"/>
-      <c r="AT75" s="58"/>
-      <c r="AU75" s="58"/>
-      <c r="AV75" s="58"/>
-      <c r="AW75" s="58"/>
-      <c r="AX75" s="58"/>
-      <c r="AY75" s="58"/>
-      <c r="AZ75" s="58"/>
-      <c r="BA75" s="58"/>
-      <c r="BB75" s="58"/>
-      <c r="BC75" s="58"/>
-      <c r="BD75" s="58"/>
-      <c r="BE75" s="58"/>
-      <c r="BF75" s="58"/>
-      <c r="BG75" s="58"/>
-      <c r="BH75" s="58"/>
-      <c r="BI75" s="58"/>
-      <c r="BJ75" s="58"/>
-      <c r="BK75" s="58"/>
-      <c r="BL75" s="58"/>
-      <c r="BM75" s="58"/>
-      <c r="BN75" s="58"/>
-      <c r="BO75" s="58"/>
-      <c r="BP75" s="58"/>
-      <c r="BQ75" s="58"/>
-      <c r="BR75" s="58"/>
-      <c r="BS75" s="58"/>
-      <c r="BT75" s="58"/>
-      <c r="BU75" s="58"/>
-      <c r="BV75" s="58"/>
-      <c r="BW75" s="58"/>
-      <c r="BX75" s="58"/>
-      <c r="BY75" s="58"/>
-      <c r="BZ75" s="58"/>
-      <c r="CA75" s="58"/>
-      <c r="CB75" s="58"/>
-      <c r="CC75" s="58"/>
-      <c r="CD75" s="58"/>
-      <c r="CE75" s="58"/>
-      <c r="CF75" s="58"/>
-      <c r="CG75" s="58"/>
-      <c r="CH75" s="58"/>
-      <c r="CI75" s="58"/>
-      <c r="CJ75" s="58"/>
-      <c r="CK75" s="58"/>
-      <c r="CL75" s="59"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="67"/>
+      <c r="P75" s="67"/>
+      <c r="Q75" s="67"/>
+      <c r="R75" s="67"/>
+      <c r="S75" s="67"/>
+      <c r="T75" s="67"/>
+      <c r="U75" s="67"/>
+      <c r="V75" s="67"/>
+      <c r="W75" s="67"/>
+      <c r="X75" s="67"/>
+      <c r="Y75" s="67"/>
+      <c r="Z75" s="67"/>
+      <c r="AA75" s="67"/>
+      <c r="AB75" s="67"/>
+      <c r="AC75" s="67"/>
+      <c r="AD75" s="67"/>
+      <c r="AE75" s="67"/>
+      <c r="AF75" s="67"/>
+      <c r="AG75" s="67"/>
+      <c r="AH75" s="67"/>
+      <c r="AI75" s="67"/>
+      <c r="AJ75" s="67"/>
+      <c r="AK75" s="67"/>
+      <c r="AL75" s="67"/>
+      <c r="AM75" s="67"/>
+      <c r="AN75" s="67"/>
+      <c r="AO75" s="67"/>
+      <c r="AP75" s="67"/>
+      <c r="AQ75" s="50"/>
+      <c r="AR75" s="50"/>
+      <c r="AS75" s="50"/>
+      <c r="AT75" s="50"/>
+      <c r="AU75" s="50"/>
+      <c r="AV75" s="50"/>
+      <c r="AW75" s="50"/>
+      <c r="AX75" s="50"/>
+      <c r="AY75" s="50"/>
+      <c r="AZ75" s="50"/>
+      <c r="BA75" s="50"/>
+      <c r="BB75" s="50"/>
+      <c r="BC75" s="50"/>
+      <c r="BD75" s="50"/>
+      <c r="BE75" s="50"/>
+      <c r="BF75" s="50"/>
+      <c r="BG75" s="50"/>
+      <c r="BH75" s="50"/>
+      <c r="BI75" s="50"/>
+      <c r="BJ75" s="50"/>
+      <c r="BK75" s="50"/>
+      <c r="BL75" s="50"/>
+      <c r="BM75" s="50"/>
+      <c r="BN75" s="50"/>
+      <c r="BO75" s="50"/>
+      <c r="BP75" s="50"/>
+      <c r="BQ75" s="50"/>
+      <c r="BR75" s="50"/>
+      <c r="BS75" s="50"/>
+      <c r="BT75" s="50"/>
+      <c r="BU75" s="50"/>
+      <c r="BV75" s="50"/>
+      <c r="BW75" s="50"/>
+      <c r="BX75" s="50"/>
+      <c r="BY75" s="50"/>
+      <c r="BZ75" s="50"/>
+      <c r="CA75" s="50"/>
+      <c r="CB75" s="50"/>
+      <c r="CC75" s="50"/>
+      <c r="CD75" s="50"/>
+      <c r="CE75" s="50"/>
+      <c r="CF75" s="50"/>
+      <c r="CG75" s="50"/>
+      <c r="CH75" s="50"/>
+      <c r="CI75" s="50"/>
+      <c r="CJ75" s="50"/>
+      <c r="CK75" s="50"/>
+      <c r="CL75" s="51"/>
     </row>
     <row r="76" spans="1:90">
-      <c r="B76" s="76"/>
+      <c r="B76" s="68"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11" t="s">
         <v>14</v>
@@ -15296,10 +15476,10 @@
       <c r="CI76" s="26"/>
       <c r="CJ76" s="26"/>
       <c r="CK76" s="26"/>
-      <c r="CL76" s="61"/>
+      <c r="CL76" s="53"/>
     </row>
     <row r="77" spans="1:90">
-      <c r="B77" s="77"/>
+      <c r="B77" s="69"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
@@ -15387,10 +15567,10 @@
       <c r="CI77" s="26"/>
       <c r="CJ77" s="26"/>
       <c r="CK77" s="26"/>
-      <c r="CL77" s="61"/>
+      <c r="CL77" s="53"/>
     </row>
     <row r="78" spans="1:90">
-      <c r="B78" s="65"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="29"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -15478,10 +15658,10 @@
       <c r="CI78" s="26"/>
       <c r="CJ78" s="26"/>
       <c r="CK78" s="26"/>
-      <c r="CL78" s="61"/>
+      <c r="CL78" s="53"/>
     </row>
     <row r="79" spans="1:90">
-      <c r="B79" s="65"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="29"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -15569,10 +15749,10 @@
       <c r="CI79" s="26"/>
       <c r="CJ79" s="26"/>
       <c r="CK79" s="26"/>
-      <c r="CL79" s="61"/>
+      <c r="CL79" s="53"/>
     </row>
     <row r="80" spans="1:90">
-      <c r="B80" s="65"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="29"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -15660,10 +15840,10 @@
       <c r="CI80" s="26"/>
       <c r="CJ80" s="26"/>
       <c r="CK80" s="26"/>
-      <c r="CL80" s="61"/>
+      <c r="CL80" s="53"/>
     </row>
     <row r="81" spans="2:90">
-      <c r="B81" s="65"/>
+      <c r="B81" s="57"/>
       <c r="C81" s="29"/>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
@@ -15751,10 +15931,10 @@
       <c r="CI81" s="26"/>
       <c r="CJ81" s="26"/>
       <c r="CK81" s="26"/>
-      <c r="CL81" s="61"/>
+      <c r="CL81" s="53"/>
     </row>
     <row r="82" spans="2:90">
-      <c r="B82" s="65"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="29"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
@@ -15842,10 +16022,10 @@
       <c r="CI82" s="26"/>
       <c r="CJ82" s="26"/>
       <c r="CK82" s="26"/>
-      <c r="CL82" s="61"/>
+      <c r="CL82" s="53"/>
     </row>
     <row r="83" spans="2:90">
-      <c r="B83" s="65"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="29"/>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
@@ -15933,10 +16113,10 @@
       <c r="CI83" s="26"/>
       <c r="CJ83" s="26"/>
       <c r="CK83" s="26"/>
-      <c r="CL83" s="61"/>
+      <c r="CL83" s="53"/>
     </row>
     <row r="84" spans="2:90">
-      <c r="B84" s="65"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="29"/>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
@@ -16024,10 +16204,10 @@
       <c r="CI84" s="26"/>
       <c r="CJ84" s="26"/>
       <c r="CK84" s="26"/>
-      <c r="CL84" s="61"/>
+      <c r="CL84" s="53"/>
     </row>
     <row r="85" spans="2:90">
-      <c r="B85" s="65"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="29"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -16115,10 +16295,10 @@
       <c r="CI85" s="26"/>
       <c r="CJ85" s="26"/>
       <c r="CK85" s="26"/>
-      <c r="CL85" s="61"/>
+      <c r="CL85" s="53"/>
     </row>
     <row r="86" spans="2:90">
-      <c r="B86" s="65"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="29"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
@@ -16206,10 +16386,10 @@
       <c r="CI86" s="26"/>
       <c r="CJ86" s="26"/>
       <c r="CK86" s="26"/>
-      <c r="CL86" s="61"/>
+      <c r="CL86" s="53"/>
     </row>
     <row r="87" spans="2:90">
-      <c r="B87" s="65"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="29"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
@@ -16297,10 +16477,10 @@
       <c r="CI87" s="26"/>
       <c r="CJ87" s="26"/>
       <c r="CK87" s="26"/>
-      <c r="CL87" s="61"/>
+      <c r="CL87" s="53"/>
     </row>
     <row r="88" spans="2:90">
-      <c r="B88" s="65"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="29"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -16388,10 +16568,10 @@
       <c r="CI88" s="26"/>
       <c r="CJ88" s="26"/>
       <c r="CK88" s="26"/>
-      <c r="CL88" s="61"/>
+      <c r="CL88" s="53"/>
     </row>
     <row r="89" spans="2:90">
-      <c r="B89" s="65"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="29"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
@@ -16479,10 +16659,10 @@
       <c r="CI89" s="26"/>
       <c r="CJ89" s="26"/>
       <c r="CK89" s="26"/>
-      <c r="CL89" s="61"/>
+      <c r="CL89" s="53"/>
     </row>
     <row r="90" spans="2:90">
-      <c r="B90" s="65"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="29"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
@@ -16570,10 +16750,10 @@
       <c r="CI90" s="26"/>
       <c r="CJ90" s="26"/>
       <c r="CK90" s="26"/>
-      <c r="CL90" s="61"/>
+      <c r="CL90" s="53"/>
     </row>
     <row r="91" spans="2:90">
-      <c r="B91" s="65"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="29"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
@@ -16661,10 +16841,10 @@
       <c r="CI91" s="26"/>
       <c r="CJ91" s="26"/>
       <c r="CK91" s="26"/>
-      <c r="CL91" s="61"/>
+      <c r="CL91" s="53"/>
     </row>
     <row r="92" spans="2:90">
-      <c r="B92" s="65"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="29"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -16752,10 +16932,10 @@
       <c r="CI92" s="26"/>
       <c r="CJ92" s="26"/>
       <c r="CK92" s="26"/>
-      <c r="CL92" s="61"/>
+      <c r="CL92" s="53"/>
     </row>
     <row r="93" spans="2:90">
-      <c r="B93" s="65"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="29"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
@@ -16843,10 +17023,10 @@
       <c r="CI93" s="26"/>
       <c r="CJ93" s="26"/>
       <c r="CK93" s="26"/>
-      <c r="CL93" s="61"/>
+      <c r="CL93" s="53"/>
     </row>
     <row r="94" spans="2:90">
-      <c r="B94" s="65"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="29"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
@@ -16934,10 +17114,10 @@
       <c r="CI94" s="26"/>
       <c r="CJ94" s="26"/>
       <c r="CK94" s="26"/>
-      <c r="CL94" s="61"/>
+      <c r="CL94" s="53"/>
     </row>
     <row r="95" spans="2:90" ht="26">
-      <c r="B95" s="65"/>
+      <c r="B95" s="57"/>
       <c r="C95" s="29"/>
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
@@ -16984,9 +17164,7 @@
       <c r="AT95" s="26"/>
       <c r="AU95" s="26"/>
       <c r="AV95" s="26"/>
-      <c r="AW95" s="32" t="s">
-        <v>15</v>
-      </c>
+      <c r="AW95" s="32"/>
       <c r="AX95" s="26"/>
       <c r="AY95" s="26"/>
       <c r="AZ95" s="26"/>
@@ -17027,10 +17205,10 @@
       <c r="CI95" s="26"/>
       <c r="CJ95" s="26"/>
       <c r="CK95" s="26"/>
-      <c r="CL95" s="61"/>
+      <c r="CL95" s="53"/>
     </row>
     <row r="96" spans="2:90">
-      <c r="B96" s="65"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="29"/>
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
@@ -17118,10 +17296,10 @@
       <c r="CI96" s="26"/>
       <c r="CJ96" s="26"/>
       <c r="CK96" s="26"/>
-      <c r="CL96" s="61"/>
+      <c r="CL96" s="53"/>
     </row>
     <row r="97" spans="2:90">
-      <c r="B97" s="65"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="29"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
@@ -17209,10 +17387,10 @@
       <c r="CI97" s="26"/>
       <c r="CJ97" s="26"/>
       <c r="CK97" s="26"/>
-      <c r="CL97" s="61"/>
+      <c r="CL97" s="53"/>
     </row>
     <row r="98" spans="2:90">
-      <c r="B98" s="65"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="29"/>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -17300,10 +17478,10 @@
       <c r="CI98" s="26"/>
       <c r="CJ98" s="26"/>
       <c r="CK98" s="26"/>
-      <c r="CL98" s="61"/>
+      <c r="CL98" s="53"/>
     </row>
     <row r="99" spans="2:90">
-      <c r="B99" s="65"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="29"/>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
@@ -17391,10 +17569,10 @@
       <c r="CI99" s="26"/>
       <c r="CJ99" s="26"/>
       <c r="CK99" s="26"/>
-      <c r="CL99" s="61"/>
+      <c r="CL99" s="53"/>
     </row>
     <row r="100" spans="2:90">
-      <c r="B100" s="65"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="29"/>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
@@ -17482,10 +17660,10 @@
       <c r="CI100" s="26"/>
       <c r="CJ100" s="26"/>
       <c r="CK100" s="26"/>
-      <c r="CL100" s="61"/>
+      <c r="CL100" s="53"/>
     </row>
     <row r="101" spans="2:90">
-      <c r="B101" s="65"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="29"/>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
@@ -17573,10 +17751,10 @@
       <c r="CI101" s="26"/>
       <c r="CJ101" s="26"/>
       <c r="CK101" s="26"/>
-      <c r="CL101" s="61"/>
+      <c r="CL101" s="53"/>
     </row>
     <row r="102" spans="2:90">
-      <c r="B102" s="65"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="29"/>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
@@ -17664,10 +17842,10 @@
       <c r="CI102" s="26"/>
       <c r="CJ102" s="26"/>
       <c r="CK102" s="26"/>
-      <c r="CL102" s="61"/>
+      <c r="CL102" s="53"/>
     </row>
     <row r="103" spans="2:90">
-      <c r="B103" s="65"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="29"/>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
@@ -17755,194 +17933,194 @@
       <c r="CI103" s="26"/>
       <c r="CJ103" s="26"/>
       <c r="CK103" s="26"/>
-      <c r="CL103" s="61"/>
+      <c r="CL103" s="53"/>
     </row>
     <row r="104" spans="2:90" ht="15" thickBot="1">
-      <c r="B104" s="66"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="68"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="68"/>
-      <c r="L104" s="68"/>
-      <c r="M104" s="68"/>
-      <c r="N104" s="68"/>
-      <c r="O104" s="68"/>
-      <c r="P104" s="68"/>
-      <c r="Q104" s="68"/>
-      <c r="R104" s="68"/>
-      <c r="S104" s="68"/>
-      <c r="T104" s="68"/>
-      <c r="U104" s="68"/>
-      <c r="V104" s="68"/>
-      <c r="W104" s="68"/>
-      <c r="X104" s="68"/>
-      <c r="Y104" s="68"/>
-      <c r="Z104" s="68"/>
-      <c r="AA104" s="68"/>
-      <c r="AB104" s="68"/>
-      <c r="AC104" s="68"/>
-      <c r="AD104" s="68"/>
-      <c r="AE104" s="68"/>
-      <c r="AF104" s="68"/>
-      <c r="AG104" s="68"/>
-      <c r="AH104" s="68"/>
-      <c r="AI104" s="68"/>
-      <c r="AJ104" s="68"/>
-      <c r="AK104" s="68"/>
-      <c r="AL104" s="68"/>
-      <c r="AM104" s="68"/>
-      <c r="AN104" s="68"/>
-      <c r="AO104" s="68"/>
-      <c r="AP104" s="68"/>
-      <c r="AQ104" s="68"/>
-      <c r="AR104" s="68"/>
-      <c r="AS104" s="68"/>
-      <c r="AT104" s="68"/>
-      <c r="AU104" s="68"/>
-      <c r="AV104" s="68"/>
-      <c r="AW104" s="68"/>
-      <c r="AX104" s="68"/>
-      <c r="AY104" s="68"/>
-      <c r="AZ104" s="68"/>
-      <c r="BA104" s="68"/>
-      <c r="BB104" s="68"/>
-      <c r="BC104" s="68"/>
-      <c r="BD104" s="68"/>
-      <c r="BE104" s="68"/>
-      <c r="BF104" s="68"/>
-      <c r="BG104" s="68"/>
-      <c r="BH104" s="68"/>
-      <c r="BI104" s="68"/>
-      <c r="BJ104" s="68"/>
-      <c r="BK104" s="68"/>
-      <c r="BL104" s="68"/>
-      <c r="BM104" s="68"/>
-      <c r="BN104" s="68"/>
-      <c r="BO104" s="68"/>
-      <c r="BP104" s="68"/>
-      <c r="BQ104" s="68"/>
-      <c r="BR104" s="68"/>
-      <c r="BS104" s="68"/>
-      <c r="BT104" s="68"/>
-      <c r="BU104" s="68"/>
-      <c r="BV104" s="68"/>
-      <c r="BW104" s="68"/>
-      <c r="BX104" s="68"/>
-      <c r="BY104" s="68"/>
-      <c r="BZ104" s="68"/>
-      <c r="CA104" s="68"/>
-      <c r="CB104" s="68"/>
-      <c r="CC104" s="68"/>
-      <c r="CD104" s="68"/>
-      <c r="CE104" s="68"/>
-      <c r="CF104" s="68"/>
-      <c r="CG104" s="68"/>
-      <c r="CH104" s="68"/>
-      <c r="CI104" s="68"/>
-      <c r="CJ104" s="68"/>
-      <c r="CK104" s="68"/>
-      <c r="CL104" s="70"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="60"/>
+      <c r="P104" s="60"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="60"/>
+      <c r="S104" s="60"/>
+      <c r="T104" s="60"/>
+      <c r="U104" s="60"/>
+      <c r="V104" s="60"/>
+      <c r="W104" s="60"/>
+      <c r="X104" s="60"/>
+      <c r="Y104" s="60"/>
+      <c r="Z104" s="60"/>
+      <c r="AA104" s="60"/>
+      <c r="AB104" s="60"/>
+      <c r="AC104" s="60"/>
+      <c r="AD104" s="60"/>
+      <c r="AE104" s="60"/>
+      <c r="AF104" s="60"/>
+      <c r="AG104" s="60"/>
+      <c r="AH104" s="60"/>
+      <c r="AI104" s="60"/>
+      <c r="AJ104" s="60"/>
+      <c r="AK104" s="60"/>
+      <c r="AL104" s="60"/>
+      <c r="AM104" s="60"/>
+      <c r="AN104" s="60"/>
+      <c r="AO104" s="60"/>
+      <c r="AP104" s="60"/>
+      <c r="AQ104" s="60"/>
+      <c r="AR104" s="60"/>
+      <c r="AS104" s="60"/>
+      <c r="AT104" s="60"/>
+      <c r="AU104" s="60"/>
+      <c r="AV104" s="60"/>
+      <c r="AW104" s="60"/>
+      <c r="AX104" s="60"/>
+      <c r="AY104" s="60"/>
+      <c r="AZ104" s="60"/>
+      <c r="BA104" s="60"/>
+      <c r="BB104" s="60"/>
+      <c r="BC104" s="60"/>
+      <c r="BD104" s="60"/>
+      <c r="BE104" s="60"/>
+      <c r="BF104" s="60"/>
+      <c r="BG104" s="60"/>
+      <c r="BH104" s="60"/>
+      <c r="BI104" s="60"/>
+      <c r="BJ104" s="60"/>
+      <c r="BK104" s="60"/>
+      <c r="BL104" s="60"/>
+      <c r="BM104" s="60"/>
+      <c r="BN104" s="60"/>
+      <c r="BO104" s="60"/>
+      <c r="BP104" s="60"/>
+      <c r="BQ104" s="60"/>
+      <c r="BR104" s="60"/>
+      <c r="BS104" s="60"/>
+      <c r="BT104" s="60"/>
+      <c r="BU104" s="60"/>
+      <c r="BV104" s="60"/>
+      <c r="BW104" s="60"/>
+      <c r="BX104" s="60"/>
+      <c r="BY104" s="60"/>
+      <c r="BZ104" s="60"/>
+      <c r="CA104" s="60"/>
+      <c r="CB104" s="60"/>
+      <c r="CC104" s="60"/>
+      <c r="CD104" s="60"/>
+      <c r="CE104" s="60"/>
+      <c r="CF104" s="60"/>
+      <c r="CG104" s="60"/>
+      <c r="CH104" s="60"/>
+      <c r="CI104" s="60"/>
+      <c r="CJ104" s="60"/>
+      <c r="CK104" s="60"/>
+      <c r="CL104" s="62"/>
     </row>
     <row r="105" spans="2:90" ht="17">
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="79"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="81"/>
-      <c r="J105" s="81"/>
-      <c r="K105" s="81"/>
-      <c r="L105" s="81"/>
-      <c r="M105" s="58"/>
-      <c r="N105" s="58"/>
-      <c r="O105" s="58"/>
-      <c r="P105" s="58"/>
-      <c r="Q105" s="58"/>
-      <c r="R105" s="58"/>
-      <c r="S105" s="58"/>
-      <c r="T105" s="58"/>
-      <c r="U105" s="58"/>
-      <c r="V105" s="58"/>
-      <c r="W105" s="58"/>
-      <c r="X105" s="58"/>
-      <c r="Y105" s="58"/>
-      <c r="Z105" s="58"/>
-      <c r="AA105" s="58"/>
-      <c r="AB105" s="58"/>
-      <c r="AC105" s="58"/>
-      <c r="AD105" s="58"/>
-      <c r="AE105" s="58"/>
-      <c r="AF105" s="58"/>
-      <c r="AG105" s="58"/>
-      <c r="AH105" s="58"/>
-      <c r="AI105" s="58"/>
-      <c r="AJ105" s="58"/>
-      <c r="AK105" s="58"/>
-      <c r="AL105" s="58"/>
-      <c r="AM105" s="58"/>
-      <c r="AN105" s="58"/>
-      <c r="AO105" s="58"/>
-      <c r="AP105" s="58"/>
-      <c r="AQ105" s="58"/>
-      <c r="AR105" s="58"/>
-      <c r="AS105" s="58"/>
-      <c r="AT105" s="58"/>
-      <c r="AU105" s="58"/>
-      <c r="AV105" s="58"/>
-      <c r="AW105" s="58"/>
-      <c r="AX105" s="58"/>
-      <c r="AY105" s="58"/>
-      <c r="AZ105" s="58"/>
-      <c r="BA105" s="58"/>
-      <c r="BB105" s="58"/>
-      <c r="BC105" s="58"/>
-      <c r="BD105" s="58"/>
-      <c r="BE105" s="58"/>
-      <c r="BF105" s="58"/>
-      <c r="BG105" s="58"/>
-      <c r="BH105" s="58"/>
-      <c r="BI105" s="58"/>
-      <c r="BJ105" s="58"/>
-      <c r="BK105" s="58"/>
-      <c r="BL105" s="58"/>
-      <c r="BM105" s="58"/>
-      <c r="BN105" s="58"/>
-      <c r="BO105" s="58"/>
-      <c r="BP105" s="58"/>
-      <c r="BQ105" s="58"/>
-      <c r="BR105" s="58"/>
-      <c r="BS105" s="58"/>
-      <c r="BT105" s="58"/>
-      <c r="BU105" s="58"/>
-      <c r="BV105" s="58"/>
-      <c r="BW105" s="58"/>
-      <c r="BX105" s="58"/>
-      <c r="BY105" s="58"/>
-      <c r="BZ105" s="58"/>
-      <c r="CA105" s="58"/>
-      <c r="CB105" s="58"/>
-      <c r="CC105" s="58"/>
-      <c r="CD105" s="58"/>
-      <c r="CE105" s="58"/>
-      <c r="CF105" s="58"/>
-      <c r="CG105" s="58"/>
-      <c r="CH105" s="58"/>
-      <c r="CI105" s="58"/>
-      <c r="CJ105" s="58"/>
-      <c r="CK105" s="58"/>
-      <c r="CL105" s="59"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="73"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="50"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="50"/>
+      <c r="Y105" s="50"/>
+      <c r="Z105" s="50"/>
+      <c r="AA105" s="50"/>
+      <c r="AB105" s="50"/>
+      <c r="AC105" s="50"/>
+      <c r="AD105" s="50"/>
+      <c r="AE105" s="50"/>
+      <c r="AF105" s="50"/>
+      <c r="AG105" s="50"/>
+      <c r="AH105" s="50"/>
+      <c r="AI105" s="50"/>
+      <c r="AJ105" s="50"/>
+      <c r="AK105" s="50"/>
+      <c r="AL105" s="50"/>
+      <c r="AM105" s="50"/>
+      <c r="AN105" s="50"/>
+      <c r="AO105" s="50"/>
+      <c r="AP105" s="50"/>
+      <c r="AQ105" s="50"/>
+      <c r="AR105" s="50"/>
+      <c r="AS105" s="50"/>
+      <c r="AT105" s="50"/>
+      <c r="AU105" s="50"/>
+      <c r="AV105" s="50"/>
+      <c r="AW105" s="50"/>
+      <c r="AX105" s="50"/>
+      <c r="AY105" s="50"/>
+      <c r="AZ105" s="50"/>
+      <c r="BA105" s="50"/>
+      <c r="BB105" s="50"/>
+      <c r="BC105" s="50"/>
+      <c r="BD105" s="50"/>
+      <c r="BE105" s="50"/>
+      <c r="BF105" s="50"/>
+      <c r="BG105" s="50"/>
+      <c r="BH105" s="50"/>
+      <c r="BI105" s="50"/>
+      <c r="BJ105" s="50"/>
+      <c r="BK105" s="50"/>
+      <c r="BL105" s="50"/>
+      <c r="BM105" s="50"/>
+      <c r="BN105" s="50"/>
+      <c r="BO105" s="50"/>
+      <c r="BP105" s="50"/>
+      <c r="BQ105" s="50"/>
+      <c r="BR105" s="50"/>
+      <c r="BS105" s="50"/>
+      <c r="BT105" s="50"/>
+      <c r="BU105" s="50"/>
+      <c r="BV105" s="50"/>
+      <c r="BW105" s="50"/>
+      <c r="BX105" s="50"/>
+      <c r="BY105" s="50"/>
+      <c r="BZ105" s="50"/>
+      <c r="CA105" s="50"/>
+      <c r="CB105" s="50"/>
+      <c r="CC105" s="50"/>
+      <c r="CD105" s="50"/>
+      <c r="CE105" s="50"/>
+      <c r="CF105" s="50"/>
+      <c r="CG105" s="50"/>
+      <c r="CH105" s="50"/>
+      <c r="CI105" s="50"/>
+      <c r="CJ105" s="50"/>
+      <c r="CK105" s="50"/>
+      <c r="CL105" s="51"/>
     </row>
     <row r="106" spans="2:90" ht="17">
-      <c r="B106" s="82"/>
+      <c r="B106" s="74"/>
       <c r="C106" s="33"/>
       <c r="D106" s="34"/>
       <c r="E106" s="34"/>
@@ -18030,10 +18208,10 @@
       <c r="CI106" s="26"/>
       <c r="CJ106" s="26"/>
       <c r="CK106" s="26"/>
-      <c r="CL106" s="61"/>
+      <c r="CL106" s="53"/>
     </row>
     <row r="107" spans="2:90">
-      <c r="B107" s="65"/>
+      <c r="B107" s="57"/>
       <c r="C107" s="29"/>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
@@ -18121,10 +18299,10 @@
       <c r="CI107" s="26"/>
       <c r="CJ107" s="26"/>
       <c r="CK107" s="26"/>
-      <c r="CL107" s="61"/>
+      <c r="CL107" s="53"/>
     </row>
     <row r="108" spans="2:90">
-      <c r="B108" s="65"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="29"/>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
@@ -18212,10 +18390,10 @@
       <c r="CI108" s="26"/>
       <c r="CJ108" s="26"/>
       <c r="CK108" s="26"/>
-      <c r="CL108" s="61"/>
+      <c r="CL108" s="53"/>
     </row>
     <row r="109" spans="2:90">
-      <c r="B109" s="65"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="29"/>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
@@ -18303,10 +18481,10 @@
       <c r="CI109" s="26"/>
       <c r="CJ109" s="26"/>
       <c r="CK109" s="26"/>
-      <c r="CL109" s="61"/>
+      <c r="CL109" s="53"/>
     </row>
     <row r="110" spans="2:90">
-      <c r="B110" s="65"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="29"/>
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
@@ -18394,10 +18572,10 @@
       <c r="CI110" s="26"/>
       <c r="CJ110" s="26"/>
       <c r="CK110" s="26"/>
-      <c r="CL110" s="61"/>
+      <c r="CL110" s="53"/>
     </row>
     <row r="111" spans="2:90">
-      <c r="B111" s="65"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="29"/>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
@@ -18485,10 +18663,10 @@
       <c r="CI111" s="26"/>
       <c r="CJ111" s="26"/>
       <c r="CK111" s="26"/>
-      <c r="CL111" s="61"/>
+      <c r="CL111" s="53"/>
     </row>
     <row r="112" spans="2:90">
-      <c r="B112" s="65"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="29"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
@@ -18576,10 +18754,10 @@
       <c r="CI112" s="26"/>
       <c r="CJ112" s="26"/>
       <c r="CK112" s="26"/>
-      <c r="CL112" s="61"/>
+      <c r="CL112" s="53"/>
     </row>
     <row r="113" spans="2:90">
-      <c r="B113" s="65"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="29"/>
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
@@ -18667,10 +18845,10 @@
       <c r="CI113" s="26"/>
       <c r="CJ113" s="26"/>
       <c r="CK113" s="26"/>
-      <c r="CL113" s="61"/>
+      <c r="CL113" s="53"/>
     </row>
     <row r="114" spans="2:90">
-      <c r="B114" s="65"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="29"/>
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
@@ -18758,10 +18936,10 @@
       <c r="CI114" s="26"/>
       <c r="CJ114" s="26"/>
       <c r="CK114" s="26"/>
-      <c r="CL114" s="61"/>
+      <c r="CL114" s="53"/>
     </row>
     <row r="115" spans="2:90">
-      <c r="B115" s="65"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="29"/>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -18849,10 +19027,10 @@
       <c r="CI115" s="26"/>
       <c r="CJ115" s="26"/>
       <c r="CK115" s="26"/>
-      <c r="CL115" s="61"/>
+      <c r="CL115" s="53"/>
     </row>
     <row r="116" spans="2:90">
-      <c r="B116" s="65"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="29"/>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
@@ -18940,10 +19118,10 @@
       <c r="CI116" s="26"/>
       <c r="CJ116" s="26"/>
       <c r="CK116" s="26"/>
-      <c r="CL116" s="61"/>
+      <c r="CL116" s="53"/>
     </row>
     <row r="117" spans="2:90">
-      <c r="B117" s="65"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="29"/>
       <c r="D117" s="26"/>
       <c r="E117" s="26"/>
@@ -19031,10 +19209,10 @@
       <c r="CI117" s="26"/>
       <c r="CJ117" s="26"/>
       <c r="CK117" s="26"/>
-      <c r="CL117" s="61"/>
+      <c r="CL117" s="53"/>
     </row>
     <row r="118" spans="2:90">
-      <c r="B118" s="65"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="29"/>
       <c r="D118" s="26"/>
       <c r="E118" s="26"/>
@@ -19122,10 +19300,10 @@
       <c r="CI118" s="26"/>
       <c r="CJ118" s="26"/>
       <c r="CK118" s="26"/>
-      <c r="CL118" s="61"/>
+      <c r="CL118" s="53"/>
     </row>
     <row r="119" spans="2:90">
-      <c r="B119" s="65"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="29"/>
       <c r="D119" s="26"/>
       <c r="E119" s="26"/>
@@ -19213,10 +19391,10 @@
       <c r="CI119" s="26"/>
       <c r="CJ119" s="26"/>
       <c r="CK119" s="26"/>
-      <c r="CL119" s="61"/>
+      <c r="CL119" s="53"/>
     </row>
     <row r="120" spans="2:90">
-      <c r="B120" s="65"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="29"/>
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
@@ -19304,10 +19482,10 @@
       <c r="CI120" s="26"/>
       <c r="CJ120" s="26"/>
       <c r="CK120" s="26"/>
-      <c r="CL120" s="61"/>
+      <c r="CL120" s="53"/>
     </row>
     <row r="121" spans="2:90">
-      <c r="B121" s="65"/>
+      <c r="B121" s="57"/>
       <c r="C121" s="29"/>
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
@@ -19395,10 +19573,10 @@
       <c r="CI121" s="26"/>
       <c r="CJ121" s="26"/>
       <c r="CK121" s="26"/>
-      <c r="CL121" s="61"/>
+      <c r="CL121" s="53"/>
     </row>
     <row r="122" spans="2:90">
-      <c r="B122" s="65"/>
+      <c r="B122" s="57"/>
       <c r="C122" s="29"/>
       <c r="D122" s="26"/>
       <c r="E122" s="26"/>
@@ -19486,10 +19664,10 @@
       <c r="CI122" s="26"/>
       <c r="CJ122" s="26"/>
       <c r="CK122" s="26"/>
-      <c r="CL122" s="61"/>
+      <c r="CL122" s="53"/>
     </row>
     <row r="123" spans="2:90">
-      <c r="B123" s="65"/>
+      <c r="B123" s="57"/>
       <c r="C123" s="29"/>
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
@@ -19577,10 +19755,10 @@
       <c r="CI123" s="26"/>
       <c r="CJ123" s="26"/>
       <c r="CK123" s="26"/>
-      <c r="CL123" s="61"/>
+      <c r="CL123" s="53"/>
     </row>
     <row r="124" spans="2:90">
-      <c r="B124" s="65"/>
+      <c r="B124" s="57"/>
       <c r="C124" s="29"/>
       <c r="D124" s="26"/>
       <c r="E124" s="26"/>
@@ -19668,10 +19846,10 @@
       <c r="CI124" s="26"/>
       <c r="CJ124" s="26"/>
       <c r="CK124" s="26"/>
-      <c r="CL124" s="61"/>
+      <c r="CL124" s="53"/>
     </row>
     <row r="125" spans="2:90">
-      <c r="B125" s="65"/>
+      <c r="B125" s="57"/>
       <c r="C125" s="29"/>
       <c r="D125" s="26"/>
       <c r="E125" s="26"/>
@@ -19759,10 +19937,10 @@
       <c r="CI125" s="26"/>
       <c r="CJ125" s="26"/>
       <c r="CK125" s="26"/>
-      <c r="CL125" s="61"/>
+      <c r="CL125" s="53"/>
     </row>
     <row r="126" spans="2:90">
-      <c r="B126" s="65"/>
+      <c r="B126" s="57"/>
       <c r="C126" s="29"/>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
@@ -19850,10 +20028,10 @@
       <c r="CI126" s="26"/>
       <c r="CJ126" s="26"/>
       <c r="CK126" s="26"/>
-      <c r="CL126" s="61"/>
+      <c r="CL126" s="53"/>
     </row>
     <row r="127" spans="2:90">
-      <c r="B127" s="65"/>
+      <c r="B127" s="57"/>
       <c r="C127" s="29"/>
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
@@ -19941,10 +20119,10 @@
       <c r="CI127" s="26"/>
       <c r="CJ127" s="26"/>
       <c r="CK127" s="26"/>
-      <c r="CL127" s="61"/>
+      <c r="CL127" s="53"/>
     </row>
     <row r="128" spans="2:90">
-      <c r="B128" s="65"/>
+      <c r="B128" s="57"/>
       <c r="C128" s="29"/>
       <c r="D128" s="26"/>
       <c r="E128" s="26"/>
@@ -20032,10 +20210,10 @@
       <c r="CI128" s="26"/>
       <c r="CJ128" s="26"/>
       <c r="CK128" s="26"/>
-      <c r="CL128" s="61"/>
+      <c r="CL128" s="53"/>
     </row>
     <row r="129" spans="2:92">
-      <c r="B129" s="65"/>
+      <c r="B129" s="57"/>
       <c r="C129" s="29"/>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
@@ -20123,10 +20301,10 @@
       <c r="CI129" s="26"/>
       <c r="CJ129" s="26"/>
       <c r="CK129" s="26"/>
-      <c r="CL129" s="61"/>
+      <c r="CL129" s="53"/>
     </row>
     <row r="130" spans="2:92">
-      <c r="B130" s="65"/>
+      <c r="B130" s="57"/>
       <c r="C130" s="29"/>
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
@@ -20214,10 +20392,10 @@
       <c r="CI130" s="26"/>
       <c r="CJ130" s="26"/>
       <c r="CK130" s="26"/>
-      <c r="CL130" s="61"/>
+      <c r="CL130" s="53"/>
     </row>
     <row r="131" spans="2:92">
-      <c r="B131" s="65"/>
+      <c r="B131" s="57"/>
       <c r="C131" s="29"/>
       <c r="D131" s="26"/>
       <c r="E131" s="26"/>
@@ -20227,7 +20405,7 @@
       <c r="I131" s="26"/>
       <c r="J131" s="26"/>
       <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
+      <c r="L131" s="86"/>
       <c r="M131" s="26"/>
       <c r="N131" s="26"/>
       <c r="O131" s="26"/>
@@ -20305,10 +20483,10 @@
       <c r="CI131" s="26"/>
       <c r="CJ131" s="26"/>
       <c r="CK131" s="26"/>
-      <c r="CL131" s="61"/>
+      <c r="CL131" s="53"/>
     </row>
     <row r="132" spans="2:92">
-      <c r="B132" s="65"/>
+      <c r="B132" s="57"/>
       <c r="C132" s="29"/>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
@@ -20396,198 +20574,198 @@
       <c r="CI132" s="26"/>
       <c r="CJ132" s="26"/>
       <c r="CK132" s="26"/>
-      <c r="CL132" s="61"/>
+      <c r="CL132" s="53"/>
     </row>
     <row r="133" spans="2:92" ht="15" thickBot="1">
-      <c r="B133" s="66"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="68"/>
-      <c r="I133" s="68"/>
-      <c r="J133" s="68"/>
-      <c r="K133" s="68"/>
-      <c r="L133" s="68"/>
-      <c r="M133" s="68"/>
-      <c r="N133" s="68"/>
-      <c r="O133" s="68"/>
-      <c r="P133" s="68"/>
-      <c r="Q133" s="68"/>
-      <c r="R133" s="68"/>
-      <c r="S133" s="68"/>
-      <c r="T133" s="68"/>
-      <c r="U133" s="68"/>
-      <c r="V133" s="68"/>
-      <c r="W133" s="68"/>
-      <c r="X133" s="68"/>
-      <c r="Y133" s="68"/>
-      <c r="Z133" s="68"/>
-      <c r="AA133" s="68"/>
-      <c r="AB133" s="68"/>
-      <c r="AC133" s="68"/>
-      <c r="AD133" s="68"/>
-      <c r="AE133" s="68"/>
-      <c r="AF133" s="68"/>
-      <c r="AG133" s="68"/>
-      <c r="AH133" s="68"/>
-      <c r="AI133" s="68"/>
-      <c r="AJ133" s="68"/>
-      <c r="AK133" s="68"/>
-      <c r="AL133" s="68"/>
-      <c r="AM133" s="68"/>
-      <c r="AN133" s="68"/>
-      <c r="AO133" s="68"/>
-      <c r="AP133" s="68"/>
-      <c r="AQ133" s="68"/>
-      <c r="AR133" s="68"/>
-      <c r="AS133" s="68"/>
-      <c r="AT133" s="68"/>
-      <c r="AU133" s="68"/>
-      <c r="AV133" s="68"/>
-      <c r="AW133" s="68"/>
-      <c r="AX133" s="68"/>
-      <c r="AY133" s="68"/>
-      <c r="AZ133" s="68"/>
-      <c r="BA133" s="68"/>
-      <c r="BB133" s="68"/>
-      <c r="BC133" s="68"/>
-      <c r="BD133" s="68"/>
-      <c r="BE133" s="68"/>
-      <c r="BF133" s="68"/>
-      <c r="BG133" s="68"/>
-      <c r="BH133" s="68"/>
-      <c r="BI133" s="68"/>
-      <c r="BJ133" s="68"/>
-      <c r="BK133" s="68"/>
-      <c r="BL133" s="68"/>
-      <c r="BM133" s="68"/>
-      <c r="BN133" s="68"/>
-      <c r="BO133" s="68"/>
-      <c r="BP133" s="68"/>
-      <c r="BQ133" s="68"/>
-      <c r="BR133" s="68"/>
-      <c r="BS133" s="68"/>
-      <c r="BT133" s="68"/>
-      <c r="BU133" s="68"/>
-      <c r="BV133" s="68"/>
-      <c r="BW133" s="68"/>
-      <c r="BX133" s="68"/>
-      <c r="BY133" s="68"/>
-      <c r="BZ133" s="68"/>
-      <c r="CA133" s="68"/>
-      <c r="CB133" s="68"/>
-      <c r="CC133" s="68"/>
-      <c r="CD133" s="68"/>
-      <c r="CE133" s="68"/>
-      <c r="CF133" s="68"/>
-      <c r="CG133" s="68"/>
-      <c r="CH133" s="68"/>
-      <c r="CI133" s="68"/>
-      <c r="CJ133" s="68"/>
-      <c r="CK133" s="68"/>
-      <c r="CL133" s="70"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="60"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="60"/>
+      <c r="J133" s="60"/>
+      <c r="K133" s="60"/>
+      <c r="L133" s="60"/>
+      <c r="M133" s="60"/>
+      <c r="N133" s="60"/>
+      <c r="O133" s="60"/>
+      <c r="P133" s="60"/>
+      <c r="Q133" s="60"/>
+      <c r="R133" s="60"/>
+      <c r="S133" s="60"/>
+      <c r="T133" s="60"/>
+      <c r="U133" s="60"/>
+      <c r="V133" s="60"/>
+      <c r="W133" s="60"/>
+      <c r="X133" s="60"/>
+      <c r="Y133" s="60"/>
+      <c r="Z133" s="60"/>
+      <c r="AA133" s="60"/>
+      <c r="AB133" s="60"/>
+      <c r="AC133" s="60"/>
+      <c r="AD133" s="60"/>
+      <c r="AE133" s="60"/>
+      <c r="AF133" s="60"/>
+      <c r="AG133" s="60"/>
+      <c r="AH133" s="60"/>
+      <c r="AI133" s="60"/>
+      <c r="AJ133" s="60"/>
+      <c r="AK133" s="60"/>
+      <c r="AL133" s="60"/>
+      <c r="AM133" s="60"/>
+      <c r="AN133" s="60"/>
+      <c r="AO133" s="60"/>
+      <c r="AP133" s="60"/>
+      <c r="AQ133" s="60"/>
+      <c r="AR133" s="60"/>
+      <c r="AS133" s="60"/>
+      <c r="AT133" s="60"/>
+      <c r="AU133" s="60"/>
+      <c r="AV133" s="60"/>
+      <c r="AW133" s="60"/>
+      <c r="AX133" s="60"/>
+      <c r="AY133" s="60"/>
+      <c r="AZ133" s="60"/>
+      <c r="BA133" s="60"/>
+      <c r="BB133" s="60"/>
+      <c r="BC133" s="60"/>
+      <c r="BD133" s="60"/>
+      <c r="BE133" s="60"/>
+      <c r="BF133" s="60"/>
+      <c r="BG133" s="60"/>
+      <c r="BH133" s="60"/>
+      <c r="BI133" s="60"/>
+      <c r="BJ133" s="60"/>
+      <c r="BK133" s="60"/>
+      <c r="BL133" s="60"/>
+      <c r="BM133" s="60"/>
+      <c r="BN133" s="60"/>
+      <c r="BO133" s="60"/>
+      <c r="BP133" s="60"/>
+      <c r="BQ133" s="60"/>
+      <c r="BR133" s="60"/>
+      <c r="BS133" s="60"/>
+      <c r="BT133" s="60"/>
+      <c r="BU133" s="60"/>
+      <c r="BV133" s="60"/>
+      <c r="BW133" s="60"/>
+      <c r="BX133" s="60"/>
+      <c r="BY133" s="60"/>
+      <c r="BZ133" s="60"/>
+      <c r="CA133" s="60"/>
+      <c r="CB133" s="60"/>
+      <c r="CC133" s="60"/>
+      <c r="CD133" s="60"/>
+      <c r="CE133" s="60"/>
+      <c r="CF133" s="60"/>
+      <c r="CG133" s="60"/>
+      <c r="CH133" s="60"/>
+      <c r="CI133" s="60"/>
+      <c r="CJ133" s="60"/>
+      <c r="CK133" s="60"/>
+      <c r="CL133" s="62"/>
       <c r="CM133" s="26"/>
       <c r="CN133" s="26"/>
     </row>
     <row r="134" spans="2:92" ht="17">
-      <c r="B134" s="78" t="s">
+      <c r="B134" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="83"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="81"/>
-      <c r="F134" s="81"/>
-      <c r="G134" s="81"/>
-      <c r="H134" s="81"/>
-      <c r="I134" s="81"/>
-      <c r="J134" s="81"/>
-      <c r="K134" s="58"/>
-      <c r="L134" s="58"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="58"/>
-      <c r="O134" s="58"/>
-      <c r="P134" s="58"/>
-      <c r="Q134" s="58"/>
-      <c r="R134" s="58"/>
-      <c r="S134" s="58"/>
-      <c r="T134" s="58"/>
-      <c r="U134" s="58"/>
-      <c r="V134" s="58"/>
-      <c r="W134" s="58"/>
-      <c r="X134" s="58"/>
-      <c r="Y134" s="58"/>
-      <c r="Z134" s="58"/>
-      <c r="AA134" s="58"/>
-      <c r="AB134" s="58"/>
-      <c r="AC134" s="58"/>
-      <c r="AD134" s="58"/>
-      <c r="AE134" s="58"/>
-      <c r="AF134" s="58"/>
-      <c r="AG134" s="58"/>
-      <c r="AH134" s="58"/>
-      <c r="AI134" s="58"/>
-      <c r="AJ134" s="58"/>
-      <c r="AK134" s="58"/>
-      <c r="AL134" s="58"/>
-      <c r="AM134" s="58"/>
-      <c r="AN134" s="58"/>
-      <c r="AO134" s="58"/>
-      <c r="AP134" s="58"/>
-      <c r="AQ134" s="58"/>
-      <c r="AR134" s="58"/>
-      <c r="AS134" s="58"/>
-      <c r="AT134" s="58"/>
-      <c r="AU134" s="58"/>
-      <c r="AV134" s="58"/>
-      <c r="AW134" s="58"/>
-      <c r="AX134" s="58"/>
-      <c r="AY134" s="58"/>
-      <c r="AZ134" s="58"/>
-      <c r="BA134" s="58"/>
-      <c r="BB134" s="58"/>
-      <c r="BC134" s="58"/>
-      <c r="BD134" s="58"/>
-      <c r="BE134" s="58"/>
-      <c r="BF134" s="58"/>
-      <c r="BG134" s="58"/>
-      <c r="BH134" s="58"/>
-      <c r="BI134" s="58"/>
-      <c r="BJ134" s="58"/>
-      <c r="BK134" s="58"/>
-      <c r="BL134" s="58"/>
-      <c r="BM134" s="58"/>
-      <c r="BN134" s="58"/>
-      <c r="BO134" s="58"/>
-      <c r="BP134" s="58"/>
-      <c r="BQ134" s="58"/>
-      <c r="BR134" s="58"/>
-      <c r="BS134" s="58"/>
-      <c r="BT134" s="58"/>
-      <c r="BU134" s="58"/>
-      <c r="BV134" s="58"/>
-      <c r="BW134" s="58"/>
-      <c r="BX134" s="58"/>
-      <c r="BY134" s="58"/>
-      <c r="BZ134" s="58"/>
-      <c r="CA134" s="58"/>
-      <c r="CB134" s="58"/>
-      <c r="CC134" s="58"/>
-      <c r="CD134" s="58"/>
-      <c r="CE134" s="58"/>
-      <c r="CF134" s="58"/>
-      <c r="CG134" s="58"/>
-      <c r="CH134" s="58"/>
-      <c r="CI134" s="58"/>
-      <c r="CJ134" s="58"/>
-      <c r="CK134" s="58"/>
-      <c r="CL134" s="59"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="73"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="73"/>
+      <c r="H134" s="73"/>
+      <c r="I134" s="73"/>
+      <c r="J134" s="73"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
+      <c r="Q134" s="50"/>
+      <c r="R134" s="50"/>
+      <c r="S134" s="50"/>
+      <c r="T134" s="50"/>
+      <c r="U134" s="50"/>
+      <c r="V134" s="50"/>
+      <c r="W134" s="50"/>
+      <c r="X134" s="50"/>
+      <c r="Y134" s="50"/>
+      <c r="Z134" s="50"/>
+      <c r="AA134" s="50"/>
+      <c r="AB134" s="50"/>
+      <c r="AC134" s="50"/>
+      <c r="AD134" s="50"/>
+      <c r="AE134" s="50"/>
+      <c r="AF134" s="50"/>
+      <c r="AG134" s="50"/>
+      <c r="AH134" s="50"/>
+      <c r="AI134" s="50"/>
+      <c r="AJ134" s="50"/>
+      <c r="AK134" s="50"/>
+      <c r="AL134" s="50"/>
+      <c r="AM134" s="50"/>
+      <c r="AN134" s="50"/>
+      <c r="AO134" s="50"/>
+      <c r="AP134" s="50"/>
+      <c r="AQ134" s="50"/>
+      <c r="AR134" s="50"/>
+      <c r="AS134" s="50"/>
+      <c r="AT134" s="50"/>
+      <c r="AU134" s="50"/>
+      <c r="AV134" s="50"/>
+      <c r="AW134" s="50"/>
+      <c r="AX134" s="50"/>
+      <c r="AY134" s="50"/>
+      <c r="AZ134" s="50"/>
+      <c r="BA134" s="50"/>
+      <c r="BB134" s="50"/>
+      <c r="BC134" s="50"/>
+      <c r="BD134" s="50"/>
+      <c r="BE134" s="50"/>
+      <c r="BF134" s="50"/>
+      <c r="BG134" s="50"/>
+      <c r="BH134" s="50"/>
+      <c r="BI134" s="50"/>
+      <c r="BJ134" s="50"/>
+      <c r="BK134" s="50"/>
+      <c r="BL134" s="50"/>
+      <c r="BM134" s="50"/>
+      <c r="BN134" s="50"/>
+      <c r="BO134" s="50"/>
+      <c r="BP134" s="50"/>
+      <c r="BQ134" s="50"/>
+      <c r="BR134" s="50"/>
+      <c r="BS134" s="50"/>
+      <c r="BT134" s="50"/>
+      <c r="BU134" s="50"/>
+      <c r="BV134" s="50"/>
+      <c r="BW134" s="50"/>
+      <c r="BX134" s="50"/>
+      <c r="BY134" s="50"/>
+      <c r="BZ134" s="50"/>
+      <c r="CA134" s="50"/>
+      <c r="CB134" s="50"/>
+      <c r="CC134" s="50"/>
+      <c r="CD134" s="50"/>
+      <c r="CE134" s="50"/>
+      <c r="CF134" s="50"/>
+      <c r="CG134" s="50"/>
+      <c r="CH134" s="50"/>
+      <c r="CI134" s="50"/>
+      <c r="CJ134" s="50"/>
+      <c r="CK134" s="50"/>
+      <c r="CL134" s="51"/>
       <c r="CM134" s="26"/>
       <c r="CN134" s="26"/>
     </row>
     <row r="135" spans="2:92">
-      <c r="B135" s="65"/>
+      <c r="B135" s="57"/>
       <c r="C135" s="29"/>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
@@ -20675,10 +20853,10 @@
       <c r="CI135" s="26"/>
       <c r="CJ135" s="26"/>
       <c r="CK135" s="26"/>
-      <c r="CL135" s="61"/>
+      <c r="CL135" s="53"/>
     </row>
     <row r="136" spans="2:92">
-      <c r="B136" s="65"/>
+      <c r="B136" s="57"/>
       <c r="C136" s="29"/>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
@@ -20766,10 +20944,10 @@
       <c r="CI136" s="26"/>
       <c r="CJ136" s="26"/>
       <c r="CK136" s="26"/>
-      <c r="CL136" s="61"/>
+      <c r="CL136" s="53"/>
     </row>
     <row r="137" spans="2:92">
-      <c r="B137" s="65"/>
+      <c r="B137" s="57"/>
       <c r="C137" s="29"/>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
@@ -20857,10 +21035,10 @@
       <c r="CI137" s="26"/>
       <c r="CJ137" s="26"/>
       <c r="CK137" s="26"/>
-      <c r="CL137" s="61"/>
+      <c r="CL137" s="53"/>
     </row>
     <row r="138" spans="2:92">
-      <c r="B138" s="65"/>
+      <c r="B138" s="57"/>
       <c r="C138" s="29"/>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
@@ -20948,10 +21126,10 @@
       <c r="CI138" s="26"/>
       <c r="CJ138" s="26"/>
       <c r="CK138" s="26"/>
-      <c r="CL138" s="61"/>
+      <c r="CL138" s="53"/>
     </row>
     <row r="139" spans="2:92">
-      <c r="B139" s="65"/>
+      <c r="B139" s="57"/>
       <c r="C139" s="29"/>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -21039,10 +21217,10 @@
       <c r="CI139" s="26"/>
       <c r="CJ139" s="26"/>
       <c r="CK139" s="26"/>
-      <c r="CL139" s="61"/>
+      <c r="CL139" s="53"/>
     </row>
     <row r="140" spans="2:92" ht="19.25" customHeight="1">
-      <c r="B140" s="65"/>
+      <c r="B140" s="57"/>
       <c r="C140" s="28"/>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
@@ -21130,10 +21308,10 @@
       <c r="CI140" s="26"/>
       <c r="CJ140" s="26"/>
       <c r="CK140" s="26"/>
-      <c r="CL140" s="61"/>
+      <c r="CL140" s="53"/>
     </row>
     <row r="141" spans="2:92">
-      <c r="B141" s="65"/>
+      <c r="B141" s="57"/>
       <c r="C141" s="29"/>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
@@ -21221,10 +21399,10 @@
       <c r="CI141" s="26"/>
       <c r="CJ141" s="26"/>
       <c r="CK141" s="26"/>
-      <c r="CL141" s="61"/>
+      <c r="CL141" s="53"/>
     </row>
     <row r="142" spans="2:92">
-      <c r="B142" s="65"/>
+      <c r="B142" s="57"/>
       <c r="C142" s="29"/>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
@@ -21312,10 +21490,10 @@
       <c r="CI142" s="26"/>
       <c r="CJ142" s="26"/>
       <c r="CK142" s="26"/>
-      <c r="CL142" s="61"/>
+      <c r="CL142" s="53"/>
     </row>
     <row r="143" spans="2:92">
-      <c r="B143" s="65"/>
+      <c r="B143" s="57"/>
       <c r="C143" s="29"/>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -21403,10 +21581,10 @@
       <c r="CI143" s="26"/>
       <c r="CJ143" s="26"/>
       <c r="CK143" s="26"/>
-      <c r="CL143" s="61"/>
+      <c r="CL143" s="53"/>
     </row>
     <row r="144" spans="2:92">
-      <c r="B144" s="65"/>
+      <c r="B144" s="57"/>
       <c r="C144" s="29"/>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
@@ -21494,10 +21672,10 @@
       <c r="CI144" s="26"/>
       <c r="CJ144" s="26"/>
       <c r="CK144" s="26"/>
-      <c r="CL144" s="61"/>
+      <c r="CL144" s="53"/>
     </row>
     <row r="145" spans="2:90">
-      <c r="B145" s="65"/>
+      <c r="B145" s="57"/>
       <c r="C145" s="29"/>
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
@@ -21585,10 +21763,10 @@
       <c r="CI145" s="26"/>
       <c r="CJ145" s="26"/>
       <c r="CK145" s="26"/>
-      <c r="CL145" s="61"/>
+      <c r="CL145" s="53"/>
     </row>
     <row r="146" spans="2:90">
-      <c r="B146" s="65"/>
+      <c r="B146" s="57"/>
       <c r="C146" s="29"/>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
@@ -21676,10 +21854,10 @@
       <c r="CI146" s="26"/>
       <c r="CJ146" s="26"/>
       <c r="CK146" s="26"/>
-      <c r="CL146" s="61"/>
+      <c r="CL146" s="53"/>
     </row>
     <row r="147" spans="2:90">
-      <c r="B147" s="65"/>
+      <c r="B147" s="57"/>
       <c r="C147" s="29"/>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
@@ -21767,10 +21945,10 @@
       <c r="CI147" s="26"/>
       <c r="CJ147" s="26"/>
       <c r="CK147" s="26"/>
-      <c r="CL147" s="61"/>
+      <c r="CL147" s="53"/>
     </row>
     <row r="148" spans="2:90">
-      <c r="B148" s="65"/>
+      <c r="B148" s="57"/>
       <c r="C148" s="29"/>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
@@ -21858,10 +22036,10 @@
       <c r="CI148" s="26"/>
       <c r="CJ148" s="26"/>
       <c r="CK148" s="26"/>
-      <c r="CL148" s="61"/>
+      <c r="CL148" s="53"/>
     </row>
     <row r="149" spans="2:90">
-      <c r="B149" s="65"/>
+      <c r="B149" s="57"/>
       <c r="C149" s="29"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
@@ -21949,10 +22127,10 @@
       <c r="CI149" s="26"/>
       <c r="CJ149" s="26"/>
       <c r="CK149" s="26"/>
-      <c r="CL149" s="61"/>
+      <c r="CL149" s="53"/>
     </row>
     <row r="150" spans="2:90">
-      <c r="B150" s="65"/>
+      <c r="B150" s="57"/>
       <c r="C150" s="29"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
@@ -22040,10 +22218,10 @@
       <c r="CI150" s="26"/>
       <c r="CJ150" s="26"/>
       <c r="CK150" s="26"/>
-      <c r="CL150" s="61"/>
+      <c r="CL150" s="53"/>
     </row>
     <row r="151" spans="2:90">
-      <c r="B151" s="65"/>
+      <c r="B151" s="57"/>
       <c r="C151" s="29"/>
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
@@ -22131,10 +22309,10 @@
       <c r="CI151" s="26"/>
       <c r="CJ151" s="26"/>
       <c r="CK151" s="26"/>
-      <c r="CL151" s="61"/>
+      <c r="CL151" s="53"/>
     </row>
     <row r="152" spans="2:90">
-      <c r="B152" s="65"/>
+      <c r="B152" s="57"/>
       <c r="C152" s="29"/>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
@@ -22222,10 +22400,10 @@
       <c r="CI152" s="26"/>
       <c r="CJ152" s="26"/>
       <c r="CK152" s="26"/>
-      <c r="CL152" s="61"/>
+      <c r="CL152" s="53"/>
     </row>
     <row r="153" spans="2:90">
-      <c r="B153" s="65"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="29"/>
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
@@ -22313,10 +22491,10 @@
       <c r="CI153" s="26"/>
       <c r="CJ153" s="26"/>
       <c r="CK153" s="26"/>
-      <c r="CL153" s="61"/>
+      <c r="CL153" s="53"/>
     </row>
     <row r="154" spans="2:90">
-      <c r="B154" s="65"/>
+      <c r="B154" s="57"/>
       <c r="C154" s="29"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
@@ -22404,10 +22582,10 @@
       <c r="CI154" s="26"/>
       <c r="CJ154" s="26"/>
       <c r="CK154" s="26"/>
-      <c r="CL154" s="61"/>
+      <c r="CL154" s="53"/>
     </row>
     <row r="155" spans="2:90">
-      <c r="B155" s="65"/>
+      <c r="B155" s="57"/>
       <c r="C155" s="29"/>
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>
@@ -22495,10 +22673,10 @@
       <c r="CI155" s="26"/>
       <c r="CJ155" s="26"/>
       <c r="CK155" s="26"/>
-      <c r="CL155" s="61"/>
+      <c r="CL155" s="53"/>
     </row>
     <row r="156" spans="2:90">
-      <c r="B156" s="65"/>
+      <c r="B156" s="57"/>
       <c r="C156" s="29"/>
       <c r="D156" s="26"/>
       <c r="E156" s="26"/>
@@ -22586,10 +22764,10 @@
       <c r="CI156" s="26"/>
       <c r="CJ156" s="26"/>
       <c r="CK156" s="26"/>
-      <c r="CL156" s="61"/>
+      <c r="CL156" s="53"/>
     </row>
     <row r="157" spans="2:90">
-      <c r="B157" s="65"/>
+      <c r="B157" s="57"/>
       <c r="C157" s="29"/>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
@@ -22677,10 +22855,10 @@
       <c r="CI157" s="26"/>
       <c r="CJ157" s="26"/>
       <c r="CK157" s="26"/>
-      <c r="CL157" s="61"/>
+      <c r="CL157" s="53"/>
     </row>
     <row r="158" spans="2:90">
-      <c r="B158" s="65"/>
+      <c r="B158" s="57"/>
       <c r="C158" s="29"/>
       <c r="D158" s="26"/>
       <c r="E158" s="26"/>
@@ -22768,10 +22946,10 @@
       <c r="CI158" s="26"/>
       <c r="CJ158" s="26"/>
       <c r="CK158" s="26"/>
-      <c r="CL158" s="61"/>
+      <c r="CL158" s="53"/>
     </row>
     <row r="159" spans="2:90">
-      <c r="B159" s="65"/>
+      <c r="B159" s="57"/>
       <c r="C159" s="29"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
@@ -22859,10 +23037,10 @@
       <c r="CI159" s="26"/>
       <c r="CJ159" s="26"/>
       <c r="CK159" s="26"/>
-      <c r="CL159" s="61"/>
+      <c r="CL159" s="53"/>
     </row>
     <row r="160" spans="2:90">
-      <c r="B160" s="65"/>
+      <c r="B160" s="57"/>
       <c r="C160" s="29"/>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
@@ -22950,10 +23128,10 @@
       <c r="CI160" s="26"/>
       <c r="CJ160" s="26"/>
       <c r="CK160" s="26"/>
-      <c r="CL160" s="61"/>
+      <c r="CL160" s="53"/>
     </row>
     <row r="161" spans="2:90">
-      <c r="B161" s="65"/>
+      <c r="B161" s="57"/>
       <c r="C161" s="29"/>
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
@@ -23041,10 +23219,10 @@
       <c r="CI161" s="26"/>
       <c r="CJ161" s="26"/>
       <c r="CK161" s="26"/>
-      <c r="CL161" s="61"/>
+      <c r="CL161" s="53"/>
     </row>
     <row r="162" spans="2:90">
-      <c r="B162" s="65"/>
+      <c r="B162" s="57"/>
       <c r="C162" s="29"/>
       <c r="D162" s="26"/>
       <c r="E162" s="26"/>
@@ -23132,194 +23310,194 @@
       <c r="CI162" s="26"/>
       <c r="CJ162" s="26"/>
       <c r="CK162" s="26"/>
-      <c r="CL162" s="61"/>
+      <c r="CL162" s="53"/>
     </row>
     <row r="163" spans="2:90" ht="15" thickBot="1">
-      <c r="B163" s="66"/>
-      <c r="C163" s="67"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="68"/>
-      <c r="I163" s="68"/>
-      <c r="J163" s="68"/>
-      <c r="K163" s="68"/>
-      <c r="L163" s="68"/>
-      <c r="M163" s="68"/>
-      <c r="N163" s="68"/>
-      <c r="O163" s="68"/>
-      <c r="P163" s="68"/>
-      <c r="Q163" s="68"/>
-      <c r="R163" s="68"/>
-      <c r="S163" s="68"/>
-      <c r="T163" s="68"/>
-      <c r="U163" s="68"/>
-      <c r="V163" s="68"/>
-      <c r="W163" s="68"/>
-      <c r="X163" s="68"/>
-      <c r="Y163" s="68"/>
-      <c r="Z163" s="68"/>
-      <c r="AA163" s="68"/>
-      <c r="AB163" s="68"/>
-      <c r="AC163" s="68"/>
-      <c r="AD163" s="68"/>
-      <c r="AE163" s="68"/>
-      <c r="AF163" s="68"/>
-      <c r="AG163" s="68"/>
-      <c r="AH163" s="68"/>
-      <c r="AI163" s="68"/>
-      <c r="AJ163" s="68"/>
-      <c r="AK163" s="68"/>
-      <c r="AL163" s="68"/>
-      <c r="AM163" s="68"/>
-      <c r="AN163" s="68"/>
-      <c r="AO163" s="68"/>
-      <c r="AP163" s="68"/>
-      <c r="AQ163" s="68"/>
-      <c r="AR163" s="68"/>
-      <c r="AS163" s="68"/>
-      <c r="AT163" s="68"/>
-      <c r="AU163" s="68"/>
-      <c r="AV163" s="68"/>
-      <c r="AW163" s="68"/>
-      <c r="AX163" s="68"/>
-      <c r="AY163" s="68"/>
-      <c r="AZ163" s="68"/>
-      <c r="BA163" s="68"/>
-      <c r="BB163" s="68"/>
-      <c r="BC163" s="68"/>
-      <c r="BD163" s="68"/>
-      <c r="BE163" s="68"/>
-      <c r="BF163" s="68"/>
-      <c r="BG163" s="68"/>
-      <c r="BH163" s="68"/>
-      <c r="BI163" s="68"/>
-      <c r="BJ163" s="68"/>
-      <c r="BK163" s="68"/>
-      <c r="BL163" s="68"/>
-      <c r="BM163" s="68"/>
-      <c r="BN163" s="68"/>
-      <c r="BO163" s="68"/>
-      <c r="BP163" s="68"/>
-      <c r="BQ163" s="68"/>
-      <c r="BR163" s="68"/>
-      <c r="BS163" s="68"/>
-      <c r="BT163" s="68"/>
-      <c r="BU163" s="68"/>
-      <c r="BV163" s="68"/>
-      <c r="BW163" s="68"/>
-      <c r="BX163" s="68"/>
-      <c r="BY163" s="68"/>
-      <c r="BZ163" s="68"/>
-      <c r="CA163" s="68"/>
-      <c r="CB163" s="68"/>
-      <c r="CC163" s="68"/>
-      <c r="CD163" s="68"/>
-      <c r="CE163" s="68"/>
-      <c r="CF163" s="68"/>
-      <c r="CG163" s="68"/>
-      <c r="CH163" s="68"/>
-      <c r="CI163" s="68"/>
-      <c r="CJ163" s="68"/>
-      <c r="CK163" s="68"/>
-      <c r="CL163" s="70"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="60"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="60"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
+      <c r="L163" s="60"/>
+      <c r="M163" s="60"/>
+      <c r="N163" s="60"/>
+      <c r="O163" s="60"/>
+      <c r="P163" s="60"/>
+      <c r="Q163" s="60"/>
+      <c r="R163" s="60"/>
+      <c r="S163" s="60"/>
+      <c r="T163" s="60"/>
+      <c r="U163" s="60"/>
+      <c r="V163" s="60"/>
+      <c r="W163" s="60"/>
+      <c r="X163" s="60"/>
+      <c r="Y163" s="60"/>
+      <c r="Z163" s="60"/>
+      <c r="AA163" s="60"/>
+      <c r="AB163" s="60"/>
+      <c r="AC163" s="60"/>
+      <c r="AD163" s="60"/>
+      <c r="AE163" s="60"/>
+      <c r="AF163" s="60"/>
+      <c r="AG163" s="60"/>
+      <c r="AH163" s="60"/>
+      <c r="AI163" s="60"/>
+      <c r="AJ163" s="60"/>
+      <c r="AK163" s="60"/>
+      <c r="AL163" s="60"/>
+      <c r="AM163" s="60"/>
+      <c r="AN163" s="60"/>
+      <c r="AO163" s="60"/>
+      <c r="AP163" s="60"/>
+      <c r="AQ163" s="60"/>
+      <c r="AR163" s="60"/>
+      <c r="AS163" s="60"/>
+      <c r="AT163" s="60"/>
+      <c r="AU163" s="60"/>
+      <c r="AV163" s="60"/>
+      <c r="AW163" s="60"/>
+      <c r="AX163" s="60"/>
+      <c r="AY163" s="60"/>
+      <c r="AZ163" s="60"/>
+      <c r="BA163" s="60"/>
+      <c r="BB163" s="60"/>
+      <c r="BC163" s="60"/>
+      <c r="BD163" s="60"/>
+      <c r="BE163" s="60"/>
+      <c r="BF163" s="60"/>
+      <c r="BG163" s="60"/>
+      <c r="BH163" s="60"/>
+      <c r="BI163" s="60"/>
+      <c r="BJ163" s="60"/>
+      <c r="BK163" s="60"/>
+      <c r="BL163" s="60"/>
+      <c r="BM163" s="60"/>
+      <c r="BN163" s="60"/>
+      <c r="BO163" s="60"/>
+      <c r="BP163" s="60"/>
+      <c r="BQ163" s="60"/>
+      <c r="BR163" s="60"/>
+      <c r="BS163" s="60"/>
+      <c r="BT163" s="60"/>
+      <c r="BU163" s="60"/>
+      <c r="BV163" s="60"/>
+      <c r="BW163" s="60"/>
+      <c r="BX163" s="60"/>
+      <c r="BY163" s="60"/>
+      <c r="BZ163" s="60"/>
+      <c r="CA163" s="60"/>
+      <c r="CB163" s="60"/>
+      <c r="CC163" s="60"/>
+      <c r="CD163" s="60"/>
+      <c r="CE163" s="60"/>
+      <c r="CF163" s="60"/>
+      <c r="CG163" s="60"/>
+      <c r="CH163" s="60"/>
+      <c r="CI163" s="60"/>
+      <c r="CJ163" s="60"/>
+      <c r="CK163" s="60"/>
+      <c r="CL163" s="62"/>
     </row>
     <row r="164" spans="2:90" ht="19">
-      <c r="B164" s="84" t="s">
+      <c r="B164" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C164" s="83"/>
-      <c r="D164" s="81"/>
-      <c r="E164" s="81"/>
-      <c r="F164" s="81"/>
-      <c r="G164" s="81"/>
-      <c r="H164" s="81"/>
-      <c r="I164" s="81"/>
-      <c r="J164" s="81"/>
-      <c r="K164" s="81"/>
-      <c r="L164" s="81"/>
-      <c r="M164" s="58"/>
-      <c r="N164" s="58"/>
-      <c r="O164" s="58"/>
-      <c r="P164" s="58"/>
-      <c r="Q164" s="58"/>
-      <c r="R164" s="58"/>
-      <c r="S164" s="58"/>
-      <c r="T164" s="58"/>
-      <c r="U164" s="58"/>
-      <c r="V164" s="58"/>
-      <c r="W164" s="58"/>
-      <c r="X164" s="58"/>
-      <c r="Y164" s="58"/>
-      <c r="Z164" s="58"/>
-      <c r="AA164" s="58"/>
-      <c r="AB164" s="58"/>
-      <c r="AC164" s="58"/>
-      <c r="AD164" s="58"/>
-      <c r="AE164" s="58"/>
-      <c r="AF164" s="58"/>
-      <c r="AG164" s="58"/>
-      <c r="AH164" s="58"/>
-      <c r="AI164" s="58"/>
-      <c r="AJ164" s="58"/>
-      <c r="AK164" s="58"/>
-      <c r="AL164" s="58"/>
-      <c r="AM164" s="58"/>
-      <c r="AN164" s="58"/>
-      <c r="AO164" s="58"/>
-      <c r="AP164" s="58"/>
-      <c r="AQ164" s="58"/>
-      <c r="AR164" s="85"/>
-      <c r="AS164" s="58"/>
-      <c r="AT164" s="58"/>
-      <c r="AU164" s="58"/>
-      <c r="AV164" s="58"/>
-      <c r="AW164" s="58"/>
-      <c r="AX164" s="58"/>
-      <c r="AY164" s="58"/>
-      <c r="AZ164" s="58"/>
-      <c r="BA164" s="58"/>
-      <c r="BB164" s="58"/>
-      <c r="BC164" s="58"/>
-      <c r="BD164" s="58"/>
-      <c r="BE164" s="58"/>
-      <c r="BF164" s="58"/>
-      <c r="BG164" s="58"/>
-      <c r="BH164" s="58"/>
-      <c r="BI164" s="58"/>
-      <c r="BJ164" s="58"/>
-      <c r="BK164" s="58"/>
-      <c r="BL164" s="58"/>
-      <c r="BM164" s="58"/>
-      <c r="BN164" s="58"/>
-      <c r="BO164" s="58"/>
-      <c r="BP164" s="58"/>
-      <c r="BQ164" s="58"/>
-      <c r="BR164" s="58"/>
-      <c r="BS164" s="58"/>
-      <c r="BT164" s="58"/>
-      <c r="BU164" s="58"/>
-      <c r="BV164" s="58"/>
-      <c r="BW164" s="58"/>
-      <c r="BX164" s="58"/>
-      <c r="BY164" s="58"/>
-      <c r="BZ164" s="58"/>
-      <c r="CA164" s="58"/>
-      <c r="CB164" s="58"/>
-      <c r="CC164" s="58"/>
-      <c r="CD164" s="58"/>
-      <c r="CE164" s="58"/>
-      <c r="CF164" s="58"/>
-      <c r="CG164" s="58"/>
-      <c r="CH164" s="58"/>
-      <c r="CI164" s="58"/>
-      <c r="CJ164" s="58"/>
-      <c r="CK164" s="58"/>
-      <c r="CL164" s="59"/>
+      <c r="C164" s="75"/>
+      <c r="D164" s="73"/>
+      <c r="E164" s="73"/>
+      <c r="F164" s="73"/>
+      <c r="G164" s="73"/>
+      <c r="H164" s="73"/>
+      <c r="I164" s="73"/>
+      <c r="J164" s="73"/>
+      <c r="K164" s="73"/>
+      <c r="L164" s="73"/>
+      <c r="M164" s="50"/>
+      <c r="N164" s="50"/>
+      <c r="O164" s="50"/>
+      <c r="P164" s="50"/>
+      <c r="Q164" s="50"/>
+      <c r="R164" s="50"/>
+      <c r="S164" s="50"/>
+      <c r="T164" s="50"/>
+      <c r="U164" s="50"/>
+      <c r="V164" s="50"/>
+      <c r="W164" s="50"/>
+      <c r="X164" s="50"/>
+      <c r="Y164" s="50"/>
+      <c r="Z164" s="50"/>
+      <c r="AA164" s="50"/>
+      <c r="AB164" s="50"/>
+      <c r="AC164" s="50"/>
+      <c r="AD164" s="50"/>
+      <c r="AE164" s="50"/>
+      <c r="AF164" s="50"/>
+      <c r="AG164" s="50"/>
+      <c r="AH164" s="50"/>
+      <c r="AI164" s="50"/>
+      <c r="AJ164" s="50"/>
+      <c r="AK164" s="50"/>
+      <c r="AL164" s="50"/>
+      <c r="AM164" s="50"/>
+      <c r="AN164" s="50"/>
+      <c r="AO164" s="50"/>
+      <c r="AP164" s="50"/>
+      <c r="AQ164" s="50"/>
+      <c r="AR164" s="77"/>
+      <c r="AS164" s="50"/>
+      <c r="AT164" s="50"/>
+      <c r="AU164" s="50"/>
+      <c r="AV164" s="50"/>
+      <c r="AW164" s="50"/>
+      <c r="AX164" s="50"/>
+      <c r="AY164" s="50"/>
+      <c r="AZ164" s="50"/>
+      <c r="BA164" s="50"/>
+      <c r="BB164" s="50"/>
+      <c r="BC164" s="50"/>
+      <c r="BD164" s="50"/>
+      <c r="BE164" s="50"/>
+      <c r="BF164" s="50"/>
+      <c r="BG164" s="50"/>
+      <c r="BH164" s="50"/>
+      <c r="BI164" s="50"/>
+      <c r="BJ164" s="50"/>
+      <c r="BK164" s="50"/>
+      <c r="BL164" s="50"/>
+      <c r="BM164" s="50"/>
+      <c r="BN164" s="50"/>
+      <c r="BO164" s="50"/>
+      <c r="BP164" s="50"/>
+      <c r="BQ164" s="50"/>
+      <c r="BR164" s="50"/>
+      <c r="BS164" s="50"/>
+      <c r="BT164" s="50"/>
+      <c r="BU164" s="50"/>
+      <c r="BV164" s="50"/>
+      <c r="BW164" s="50"/>
+      <c r="BX164" s="50"/>
+      <c r="BY164" s="50"/>
+      <c r="BZ164" s="50"/>
+      <c r="CA164" s="50"/>
+      <c r="CB164" s="50"/>
+      <c r="CC164" s="50"/>
+      <c r="CD164" s="50"/>
+      <c r="CE164" s="50"/>
+      <c r="CF164" s="50"/>
+      <c r="CG164" s="50"/>
+      <c r="CH164" s="50"/>
+      <c r="CI164" s="50"/>
+      <c r="CJ164" s="50"/>
+      <c r="CK164" s="50"/>
+      <c r="CL164" s="51"/>
     </row>
     <row r="165" spans="2:90">
-      <c r="B165" s="65"/>
+      <c r="B165" s="57"/>
       <c r="C165" s="29"/>
       <c r="D165" s="26"/>
       <c r="E165" s="26"/>
@@ -23407,10 +23585,10 @@
       <c r="CI165" s="26"/>
       <c r="CJ165" s="26"/>
       <c r="CK165" s="26"/>
-      <c r="CL165" s="61"/>
+      <c r="CL165" s="53"/>
     </row>
     <row r="166" spans="2:90">
-      <c r="B166" s="65"/>
+      <c r="B166" s="57"/>
       <c r="C166" s="29"/>
       <c r="D166" s="26"/>
       <c r="E166" s="26"/>
@@ -23498,10 +23676,10 @@
       <c r="CI166" s="26"/>
       <c r="CJ166" s="26"/>
       <c r="CK166" s="26"/>
-      <c r="CL166" s="61"/>
+      <c r="CL166" s="53"/>
     </row>
     <row r="167" spans="2:90">
-      <c r="B167" s="65"/>
+      <c r="B167" s="57"/>
       <c r="C167" s="29"/>
       <c r="D167" s="26"/>
       <c r="E167" s="26"/>
@@ -23589,10 +23767,10 @@
       <c r="CI167" s="26"/>
       <c r="CJ167" s="26"/>
       <c r="CK167" s="26"/>
-      <c r="CL167" s="61"/>
+      <c r="CL167" s="53"/>
     </row>
     <row r="168" spans="2:90">
-      <c r="B168" s="65"/>
+      <c r="B168" s="57"/>
       <c r="C168" s="29"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
@@ -23680,10 +23858,10 @@
       <c r="CI168" s="26"/>
       <c r="CJ168" s="26"/>
       <c r="CK168" s="26"/>
-      <c r="CL168" s="61"/>
+      <c r="CL168" s="53"/>
     </row>
     <row r="169" spans="2:90">
-      <c r="B169" s="65"/>
+      <c r="B169" s="57"/>
       <c r="C169" s="29"/>
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
@@ -23771,10 +23949,10 @@
       <c r="CI169" s="26"/>
       <c r="CJ169" s="26"/>
       <c r="CK169" s="26"/>
-      <c r="CL169" s="61"/>
+      <c r="CL169" s="53"/>
     </row>
     <row r="170" spans="2:90">
-      <c r="B170" s="65"/>
+      <c r="B170" s="57"/>
       <c r="C170" s="29"/>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
@@ -23862,10 +24040,10 @@
       <c r="CI170" s="26"/>
       <c r="CJ170" s="26"/>
       <c r="CK170" s="26"/>
-      <c r="CL170" s="61"/>
+      <c r="CL170" s="53"/>
     </row>
     <row r="171" spans="2:90">
-      <c r="B171" s="65"/>
+      <c r="B171" s="57"/>
       <c r="C171" s="29"/>
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
@@ -23953,10 +24131,10 @@
       <c r="CI171" s="26"/>
       <c r="CJ171" s="26"/>
       <c r="CK171" s="26"/>
-      <c r="CL171" s="61"/>
+      <c r="CL171" s="53"/>
     </row>
     <row r="172" spans="2:90">
-      <c r="B172" s="65"/>
+      <c r="B172" s="57"/>
       <c r="C172" s="29"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
@@ -24044,10 +24222,10 @@
       <c r="CI172" s="26"/>
       <c r="CJ172" s="26"/>
       <c r="CK172" s="26"/>
-      <c r="CL172" s="61"/>
+      <c r="CL172" s="53"/>
     </row>
     <row r="173" spans="2:90">
-      <c r="B173" s="65"/>
+      <c r="B173" s="57"/>
       <c r="C173" s="29"/>
       <c r="D173" s="26"/>
       <c r="E173" s="26"/>
@@ -24135,10 +24313,10 @@
       <c r="CI173" s="26"/>
       <c r="CJ173" s="26"/>
       <c r="CK173" s="26"/>
-      <c r="CL173" s="61"/>
+      <c r="CL173" s="53"/>
     </row>
     <row r="174" spans="2:90">
-      <c r="B174" s="65"/>
+      <c r="B174" s="57"/>
       <c r="C174" s="29"/>
       <c r="D174" s="26"/>
       <c r="E174" s="26"/>
@@ -24226,10 +24404,10 @@
       <c r="CI174" s="26"/>
       <c r="CJ174" s="26"/>
       <c r="CK174" s="26"/>
-      <c r="CL174" s="61"/>
+      <c r="CL174" s="53"/>
     </row>
     <row r="175" spans="2:90">
-      <c r="B175" s="65"/>
+      <c r="B175" s="57"/>
       <c r="C175" s="29"/>
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
@@ -24317,10 +24495,10 @@
       <c r="CI175" s="26"/>
       <c r="CJ175" s="26"/>
       <c r="CK175" s="26"/>
-      <c r="CL175" s="61"/>
+      <c r="CL175" s="53"/>
     </row>
     <row r="176" spans="2:90">
-      <c r="B176" s="65"/>
+      <c r="B176" s="57"/>
       <c r="C176" s="29"/>
       <c r="D176" s="26"/>
       <c r="E176" s="26"/>
@@ -24408,10 +24586,10 @@
       <c r="CI176" s="26"/>
       <c r="CJ176" s="26"/>
       <c r="CK176" s="26"/>
-      <c r="CL176" s="61"/>
+      <c r="CL176" s="53"/>
     </row>
     <row r="177" spans="2:90">
-      <c r="B177" s="65"/>
+      <c r="B177" s="57"/>
       <c r="C177" s="29"/>
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
@@ -24499,10 +24677,10 @@
       <c r="CI177" s="26"/>
       <c r="CJ177" s="26"/>
       <c r="CK177" s="26"/>
-      <c r="CL177" s="61"/>
+      <c r="CL177" s="53"/>
     </row>
     <row r="178" spans="2:90" ht="17.5" customHeight="1">
-      <c r="B178" s="65"/>
+      <c r="B178" s="57"/>
       <c r="C178" s="28"/>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
@@ -24590,10 +24768,10 @@
       <c r="CI178" s="26"/>
       <c r="CJ178" s="26"/>
       <c r="CK178" s="26"/>
-      <c r="CL178" s="61"/>
+      <c r="CL178" s="53"/>
     </row>
     <row r="179" spans="2:90">
-      <c r="B179" s="65"/>
+      <c r="B179" s="57"/>
       <c r="C179" s="29"/>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
@@ -24681,10 +24859,10 @@
       <c r="CI179" s="26"/>
       <c r="CJ179" s="26"/>
       <c r="CK179" s="26"/>
-      <c r="CL179" s="61"/>
+      <c r="CL179" s="53"/>
     </row>
     <row r="180" spans="2:90">
-      <c r="B180" s="65"/>
+      <c r="B180" s="57"/>
       <c r="C180" s="29"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
@@ -24772,10 +24950,10 @@
       <c r="CI180" s="26"/>
       <c r="CJ180" s="26"/>
       <c r="CK180" s="26"/>
-      <c r="CL180" s="61"/>
+      <c r="CL180" s="53"/>
     </row>
     <row r="181" spans="2:90">
-      <c r="B181" s="65"/>
+      <c r="B181" s="57"/>
       <c r="C181" s="29"/>
       <c r="D181" s="26"/>
       <c r="E181" s="26"/>
@@ -24863,10 +25041,10 @@
       <c r="CI181" s="26"/>
       <c r="CJ181" s="26"/>
       <c r="CK181" s="26"/>
-      <c r="CL181" s="61"/>
+      <c r="CL181" s="53"/>
     </row>
     <row r="182" spans="2:90">
-      <c r="B182" s="65"/>
+      <c r="B182" s="57"/>
       <c r="C182" s="29"/>
       <c r="D182" s="26"/>
       <c r="E182" s="26"/>
@@ -24954,10 +25132,10 @@
       <c r="CI182" s="26"/>
       <c r="CJ182" s="26"/>
       <c r="CK182" s="26"/>
-      <c r="CL182" s="61"/>
+      <c r="CL182" s="53"/>
     </row>
     <row r="183" spans="2:90">
-      <c r="B183" s="65"/>
+      <c r="B183" s="57"/>
       <c r="C183" s="29"/>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
@@ -25045,10 +25223,10 @@
       <c r="CI183" s="26"/>
       <c r="CJ183" s="26"/>
       <c r="CK183" s="26"/>
-      <c r="CL183" s="61"/>
+      <c r="CL183" s="53"/>
     </row>
     <row r="184" spans="2:90">
-      <c r="B184" s="65"/>
+      <c r="B184" s="57"/>
       <c r="C184" s="29"/>
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
@@ -25136,10 +25314,10 @@
       <c r="CI184" s="26"/>
       <c r="CJ184" s="26"/>
       <c r="CK184" s="26"/>
-      <c r="CL184" s="61"/>
+      <c r="CL184" s="53"/>
     </row>
     <row r="185" spans="2:90">
-      <c r="B185" s="65"/>
+      <c r="B185" s="57"/>
       <c r="C185" s="29"/>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
@@ -25227,98 +25405,98 @@
       <c r="CI185" s="26"/>
       <c r="CJ185" s="26"/>
       <c r="CK185" s="26"/>
-      <c r="CL185" s="61"/>
+      <c r="CL185" s="53"/>
     </row>
     <row r="186" spans="2:90" ht="15" thickBot="1">
-      <c r="B186" s="66"/>
-      <c r="C186" s="67"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="68"/>
-      <c r="F186" s="68"/>
-      <c r="G186" s="68"/>
-      <c r="H186" s="68"/>
-      <c r="I186" s="68"/>
-      <c r="J186" s="68"/>
-      <c r="K186" s="68"/>
-      <c r="L186" s="68"/>
-      <c r="M186" s="68"/>
-      <c r="N186" s="68"/>
-      <c r="O186" s="68"/>
-      <c r="P186" s="68"/>
-      <c r="Q186" s="68"/>
-      <c r="R186" s="68"/>
-      <c r="S186" s="68"/>
-      <c r="T186" s="68"/>
-      <c r="U186" s="68"/>
-      <c r="V186" s="68"/>
-      <c r="W186" s="68"/>
-      <c r="X186" s="68"/>
-      <c r="Y186" s="68"/>
-      <c r="Z186" s="68"/>
-      <c r="AA186" s="68"/>
-      <c r="AB186" s="68"/>
-      <c r="AC186" s="68"/>
-      <c r="AD186" s="68"/>
-      <c r="AE186" s="68"/>
-      <c r="AF186" s="68"/>
-      <c r="AG186" s="68"/>
-      <c r="AH186" s="68"/>
-      <c r="AI186" s="68"/>
-      <c r="AJ186" s="68"/>
-      <c r="AK186" s="68"/>
-      <c r="AL186" s="68"/>
-      <c r="AM186" s="68"/>
-      <c r="AN186" s="68"/>
-      <c r="AO186" s="68"/>
-      <c r="AP186" s="68"/>
-      <c r="AQ186" s="68"/>
-      <c r="AR186" s="68"/>
-      <c r="AS186" s="68"/>
-      <c r="AT186" s="68"/>
-      <c r="AU186" s="68"/>
-      <c r="AV186" s="68"/>
-      <c r="AW186" s="68"/>
-      <c r="AX186" s="68"/>
-      <c r="AY186" s="68"/>
-      <c r="AZ186" s="68"/>
-      <c r="BA186" s="68"/>
-      <c r="BB186" s="68"/>
-      <c r="BC186" s="68"/>
-      <c r="BD186" s="68"/>
-      <c r="BE186" s="68"/>
-      <c r="BF186" s="68"/>
-      <c r="BG186" s="68"/>
-      <c r="BH186" s="68"/>
-      <c r="BI186" s="68"/>
-      <c r="BJ186" s="68"/>
-      <c r="BK186" s="68"/>
-      <c r="BL186" s="68"/>
-      <c r="BM186" s="68"/>
-      <c r="BN186" s="68"/>
-      <c r="BO186" s="68"/>
-      <c r="BP186" s="68"/>
-      <c r="BQ186" s="68"/>
-      <c r="BR186" s="68"/>
-      <c r="BS186" s="68"/>
-      <c r="BT186" s="68"/>
-      <c r="BU186" s="68"/>
-      <c r="BV186" s="68"/>
-      <c r="BW186" s="68"/>
-      <c r="BX186" s="68"/>
-      <c r="BY186" s="68"/>
-      <c r="BZ186" s="68"/>
-      <c r="CA186" s="68"/>
-      <c r="CB186" s="68"/>
-      <c r="CC186" s="68"/>
-      <c r="CD186" s="68"/>
-      <c r="CE186" s="68"/>
-      <c r="CF186" s="68"/>
-      <c r="CG186" s="68"/>
-      <c r="CH186" s="68"/>
-      <c r="CI186" s="68"/>
-      <c r="CJ186" s="68"/>
-      <c r="CK186" s="68"/>
-      <c r="CL186" s="70"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="59"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="60"/>
+      <c r="F186" s="60"/>
+      <c r="G186" s="60"/>
+      <c r="H186" s="60"/>
+      <c r="I186" s="60"/>
+      <c r="J186" s="60"/>
+      <c r="K186" s="60"/>
+      <c r="L186" s="60"/>
+      <c r="M186" s="60"/>
+      <c r="N186" s="60"/>
+      <c r="O186" s="60"/>
+      <c r="P186" s="60"/>
+      <c r="Q186" s="60"/>
+      <c r="R186" s="60"/>
+      <c r="S186" s="60"/>
+      <c r="T186" s="60"/>
+      <c r="U186" s="60"/>
+      <c r="V186" s="60"/>
+      <c r="W186" s="60"/>
+      <c r="X186" s="60"/>
+      <c r="Y186" s="60"/>
+      <c r="Z186" s="60"/>
+      <c r="AA186" s="60"/>
+      <c r="AB186" s="60"/>
+      <c r="AC186" s="60"/>
+      <c r="AD186" s="60"/>
+      <c r="AE186" s="60"/>
+      <c r="AF186" s="60"/>
+      <c r="AG186" s="60"/>
+      <c r="AH186" s="60"/>
+      <c r="AI186" s="60"/>
+      <c r="AJ186" s="60"/>
+      <c r="AK186" s="60"/>
+      <c r="AL186" s="60"/>
+      <c r="AM186" s="60"/>
+      <c r="AN186" s="60"/>
+      <c r="AO186" s="60"/>
+      <c r="AP186" s="60"/>
+      <c r="AQ186" s="60"/>
+      <c r="AR186" s="60"/>
+      <c r="AS186" s="60"/>
+      <c r="AT186" s="60"/>
+      <c r="AU186" s="60"/>
+      <c r="AV186" s="60"/>
+      <c r="AW186" s="60"/>
+      <c r="AX186" s="60"/>
+      <c r="AY186" s="60"/>
+      <c r="AZ186" s="60"/>
+      <c r="BA186" s="60"/>
+      <c r="BB186" s="60"/>
+      <c r="BC186" s="60"/>
+      <c r="BD186" s="60"/>
+      <c r="BE186" s="60"/>
+      <c r="BF186" s="60"/>
+      <c r="BG186" s="60"/>
+      <c r="BH186" s="60"/>
+      <c r="BI186" s="60"/>
+      <c r="BJ186" s="60"/>
+      <c r="BK186" s="60"/>
+      <c r="BL186" s="60"/>
+      <c r="BM186" s="60"/>
+      <c r="BN186" s="60"/>
+      <c r="BO186" s="60"/>
+      <c r="BP186" s="60"/>
+      <c r="BQ186" s="60"/>
+      <c r="BR186" s="60"/>
+      <c r="BS186" s="60"/>
+      <c r="BT186" s="60"/>
+      <c r="BU186" s="60"/>
+      <c r="BV186" s="60"/>
+      <c r="BW186" s="60"/>
+      <c r="BX186" s="60"/>
+      <c r="BY186" s="60"/>
+      <c r="BZ186" s="60"/>
+      <c r="CA186" s="60"/>
+      <c r="CB186" s="60"/>
+      <c r="CC186" s="60"/>
+      <c r="CD186" s="60"/>
+      <c r="CE186" s="60"/>
+      <c r="CF186" s="60"/>
+      <c r="CG186" s="60"/>
+      <c r="CH186" s="60"/>
+      <c r="CI186" s="60"/>
+      <c r="CJ186" s="60"/>
+      <c r="CK186" s="60"/>
+      <c r="CL186" s="62"/>
     </row>
     <row r="200" spans="44:48">
       <c r="AR200" s="3"/>
